--- a/data/measurements2.xlsx
+++ b/data/measurements2.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andreas\Datascience\Prius_consommation\Prius_gas_type\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miguel/Downloads/Untitled Folder 1/technical_challenge_DA/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64ACA460-A0EE-1F4F-925A-A946AEDAF6C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="15000" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="23600" windowHeight="13780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -95,7 +96,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -124,16 +125,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -156,21 +164,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L389" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:L389"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:L389" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:L389" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="distance"/>
-    <tableColumn id="2" name="consume"/>
-    <tableColumn id="3" name="speed"/>
-    <tableColumn id="4" name="temp_inside"/>
-    <tableColumn id="5" name="temp_outside"/>
-    <tableColumn id="6" name="specials"/>
-    <tableColumn id="7" name="gas_type"/>
-    <tableColumn id="8" name="AC"/>
-    <tableColumn id="9" name="rain"/>
-    <tableColumn id="10" name="sun"/>
-    <tableColumn id="11" name="refill liters"/>
-    <tableColumn id="12" name="refill gas"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="distance"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="consume"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="speed"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="temp_inside" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="temp_outside"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="specials"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="gas_type"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="AC"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="rain"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="sun"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="refill liters"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="refill gas"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -252,6 +260,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -287,6 +312,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -462,25 +504,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L389"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A365" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K389" sqref="K389"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.25" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="4" max="4" width="13.5" customWidth="1"/>
-    <col min="5" max="5" width="14.75" customWidth="1"/>
+    <col min="4" max="4" width="13.5" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="10.25" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -490,7 +532,7 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -518,7 +560,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>28</v>
       </c>
@@ -528,7 +570,7 @@
       <c r="C2">
         <v>26</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>21.5</v>
       </c>
       <c r="E2">
@@ -553,7 +595,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>12</v>
       </c>
@@ -563,7 +605,7 @@
       <c r="C3">
         <v>30</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>21.5</v>
       </c>
       <c r="E3">
@@ -582,7 +624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>11.2</v>
       </c>
@@ -592,7 +634,7 @@
       <c r="C4">
         <v>38</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>21.5</v>
       </c>
       <c r="E4">
@@ -611,7 +653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>12.9</v>
       </c>
@@ -621,7 +663,7 @@
       <c r="C5">
         <v>36</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>21.5</v>
       </c>
       <c r="E5">
@@ -640,7 +682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>18.5</v>
       </c>
@@ -650,7 +692,7 @@
       <c r="C6">
         <v>46</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>21.5</v>
       </c>
       <c r="E6">
@@ -669,7 +711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>8.3000000000000007</v>
       </c>
@@ -679,7 +721,7 @@
       <c r="C7">
         <v>50</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <v>21.5</v>
       </c>
       <c r="E7">
@@ -698,7 +740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7.8</v>
       </c>
@@ -708,7 +750,7 @@
       <c r="C8">
         <v>43</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>21.5</v>
       </c>
       <c r="E8">
@@ -727,7 +769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>12.3</v>
       </c>
@@ -737,7 +779,7 @@
       <c r="C9">
         <v>40</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>21.5</v>
       </c>
       <c r="E9">
@@ -756,7 +798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>4.9000000000000004</v>
       </c>
@@ -766,7 +808,7 @@
       <c r="C10">
         <v>26</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="3">
         <v>21.5</v>
       </c>
       <c r="E10">
@@ -785,7 +827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>11.9</v>
       </c>
@@ -795,7 +837,7 @@
       <c r="C11">
         <v>30</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="3">
         <v>21.5</v>
       </c>
       <c r="E11">
@@ -814,7 +856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>12.4</v>
       </c>
@@ -824,7 +866,7 @@
       <c r="C12">
         <v>42</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="3">
         <v>21.5</v>
       </c>
       <c r="E12">
@@ -843,7 +885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>11.8</v>
       </c>
@@ -853,7 +895,7 @@
       <c r="C13">
         <v>38</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="3">
         <v>21.5</v>
       </c>
       <c r="E13">
@@ -872,7 +914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>12.3</v>
       </c>
@@ -882,7 +924,7 @@
       <c r="C14">
         <v>59</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="3">
         <v>21.5</v>
       </c>
       <c r="E14">
@@ -901,7 +943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>24.7</v>
       </c>
@@ -911,7 +953,7 @@
       <c r="C15">
         <v>58</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="3">
         <v>21.5</v>
       </c>
       <c r="E15">
@@ -930,7 +972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>12.4</v>
       </c>
@@ -940,7 +982,7 @@
       <c r="C16">
         <v>46</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="3">
         <v>21.5</v>
       </c>
       <c r="E16">
@@ -959,7 +1001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>17.3</v>
       </c>
@@ -969,7 +1011,7 @@
       <c r="C17">
         <v>24</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="3">
         <v>21.5</v>
       </c>
       <c r="E17">
@@ -988,7 +1030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>33.4</v>
       </c>
@@ -998,7 +1040,7 @@
       <c r="C18">
         <v>36</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="3">
         <v>21.5</v>
       </c>
       <c r="E18">
@@ -1017,7 +1059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>11.8</v>
       </c>
@@ -1027,7 +1069,7 @@
       <c r="C19">
         <v>32</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="3">
         <v>21.5</v>
       </c>
       <c r="E19">
@@ -1046,7 +1088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>25.9</v>
       </c>
@@ -1056,7 +1098,7 @@
       <c r="C20">
         <v>39</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="3">
         <v>21.5</v>
       </c>
       <c r="E20">
@@ -1075,7 +1117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>11.8</v>
       </c>
@@ -1085,7 +1127,7 @@
       <c r="C21">
         <v>40</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="3">
         <v>21.5</v>
       </c>
       <c r="E21">
@@ -1104,7 +1146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>25.3</v>
       </c>
@@ -1114,7 +1156,7 @@
       <c r="C22">
         <v>32</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="3">
         <v>21.5</v>
       </c>
       <c r="E22">
@@ -1133,7 +1175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>14.2</v>
       </c>
@@ -1143,7 +1185,7 @@
       <c r="C23">
         <v>38</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="3">
         <v>21.5</v>
       </c>
       <c r="E23">
@@ -1162,7 +1204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>17.899999999999999</v>
       </c>
@@ -1172,7 +1214,7 @@
       <c r="C24">
         <v>37</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="3">
         <v>21.5</v>
       </c>
       <c r="E24">
@@ -1191,7 +1233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>11.8</v>
       </c>
@@ -1201,7 +1243,7 @@
       <c r="C25">
         <v>36</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="3">
         <v>21.5</v>
       </c>
       <c r="E25">
@@ -1220,7 +1262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>12.3</v>
       </c>
@@ -1230,7 +1272,7 @@
       <c r="C26">
         <v>62</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="3">
         <v>21.5</v>
       </c>
       <c r="E26">
@@ -1249,7 +1291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>12.4</v>
       </c>
@@ -1259,7 +1301,7 @@
       <c r="C27">
         <v>57</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="3">
         <v>21.5</v>
       </c>
       <c r="E27">
@@ -1278,7 +1320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>18.399999999999999</v>
       </c>
@@ -1288,7 +1330,7 @@
       <c r="C28">
         <v>21</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="3">
         <v>22.5</v>
       </c>
       <c r="E28">
@@ -1307,7 +1349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>18.399999999999999</v>
       </c>
@@ -1317,7 +1359,7 @@
       <c r="C29">
         <v>28</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="3">
         <v>21.5</v>
       </c>
       <c r="E29">
@@ -1336,7 +1378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>18.3</v>
       </c>
@@ -1346,7 +1388,7 @@
       <c r="C30">
         <v>29</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="3">
         <v>21.5</v>
       </c>
       <c r="E30">
@@ -1365,7 +1407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>18.399999999999999</v>
       </c>
@@ -1375,7 +1417,7 @@
       <c r="C31">
         <v>35</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="3">
         <v>21.5</v>
       </c>
       <c r="E31">
@@ -1394,7 +1436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>12.3</v>
       </c>
@@ -1404,7 +1446,7 @@
       <c r="C32">
         <v>51</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="3">
         <v>21.5</v>
       </c>
       <c r="E32">
@@ -1423,7 +1465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>11.8</v>
       </c>
@@ -1433,7 +1475,7 @@
       <c r="C33">
         <v>29</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="3">
         <v>21.5</v>
       </c>
       <c r="E33">
@@ -1452,7 +1494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>12.3</v>
       </c>
@@ -1462,7 +1504,7 @@
       <c r="C34">
         <v>58</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="3">
         <v>21.5</v>
       </c>
       <c r="E34">
@@ -1481,7 +1523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>32.6</v>
       </c>
@@ -1491,7 +1533,7 @@
       <c r="C35">
         <v>40</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="3">
         <v>21.5</v>
       </c>
       <c r="E35">
@@ -1510,7 +1552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>19</v>
       </c>
@@ -1520,7 +1562,7 @@
       <c r="C36">
         <v>36</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="3">
         <v>21.5</v>
       </c>
       <c r="E36">
@@ -1539,7 +1581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>12.1</v>
       </c>
@@ -1549,7 +1591,7 @@
       <c r="C37">
         <v>36</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="3">
         <v>21.5</v>
       </c>
       <c r="E37">
@@ -1568,7 +1610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>20</v>
       </c>
@@ -1578,7 +1620,7 @@
       <c r="C38">
         <v>37</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="3">
         <v>21.5</v>
       </c>
       <c r="E38">
@@ -1597,7 +1639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>4.9000000000000004</v>
       </c>
@@ -1607,7 +1649,7 @@
       <c r="C39">
         <v>26</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="3">
         <v>21.5</v>
       </c>
       <c r="E39">
@@ -1626,7 +1668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>11.8</v>
       </c>
@@ -1636,7 +1678,7 @@
       <c r="C40">
         <v>23</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="3">
         <v>21.5</v>
       </c>
       <c r="E40">
@@ -1655,7 +1697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>12.3</v>
       </c>
@@ -1665,7 +1707,7 @@
       <c r="C41">
         <v>58</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="3">
         <v>21.5</v>
       </c>
       <c r="E41">
@@ -1684,7 +1726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>12.4</v>
       </c>
@@ -1694,7 +1736,7 @@
       <c r="C42">
         <v>55</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="3">
         <v>21.5</v>
       </c>
       <c r="E42">
@@ -1716,7 +1758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>4.5</v>
       </c>
@@ -1726,7 +1768,7 @@
       <c r="C43">
         <v>29</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="3">
         <v>21.5</v>
       </c>
       <c r="E43">
@@ -1748,7 +1790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>11.7</v>
       </c>
@@ -1758,7 +1800,7 @@
       <c r="C44">
         <v>37</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="3">
         <v>21.5</v>
       </c>
       <c r="E44">
@@ -1777,7 +1819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>10.199999999999999</v>
       </c>
@@ -1787,7 +1829,7 @@
       <c r="C45">
         <v>44</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="3">
         <v>21.5</v>
       </c>
       <c r="E45">
@@ -1806,7 +1848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>5.4</v>
       </c>
@@ -1816,7 +1858,7 @@
       <c r="C46">
         <v>32</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="3">
         <v>21.5</v>
       </c>
       <c r="E46">
@@ -1841,7 +1883,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>2</v>
       </c>
@@ -1851,7 +1893,7 @@
       <c r="C47">
         <v>21</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="3">
         <v>21.5</v>
       </c>
       <c r="E47">
@@ -1870,7 +1912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>14.2</v>
       </c>
@@ -1880,7 +1922,7 @@
       <c r="C48">
         <v>32</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="3">
         <v>21.5</v>
       </c>
       <c r="E48">
@@ -1899,7 +1941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>16</v>
       </c>
@@ -1909,7 +1951,7 @@
       <c r="C49">
         <v>25</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="3">
         <v>21.5</v>
       </c>
       <c r="E49">
@@ -1928,7 +1970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>11.8</v>
       </c>
@@ -1938,7 +1980,7 @@
       <c r="C50">
         <v>25</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="3">
         <v>21.5</v>
       </c>
       <c r="E50">
@@ -1957,7 +1999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>27.3</v>
       </c>
@@ -1967,7 +2009,7 @@
       <c r="C51">
         <v>36</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="3">
         <v>21.5</v>
       </c>
       <c r="E51">
@@ -1986,7 +2028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>11.8</v>
       </c>
@@ -1996,7 +2038,7 @@
       <c r="C52">
         <v>29</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="3">
         <v>21.5</v>
       </c>
       <c r="E52">
@@ -2018,7 +2060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>10.6</v>
       </c>
@@ -2028,7 +2070,7 @@
       <c r="C53">
         <v>63</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="3">
         <v>21.5</v>
       </c>
       <c r="E53">
@@ -2047,7 +2089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>11.6</v>
       </c>
@@ -2057,7 +2099,7 @@
       <c r="C54">
         <v>61</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="3">
         <v>21.5</v>
       </c>
       <c r="E54">
@@ -2076,7 +2118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>13.1</v>
       </c>
@@ -2086,7 +2128,7 @@
       <c r="C55">
         <v>46</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="3">
         <v>21.5</v>
       </c>
       <c r="E55">
@@ -2108,7 +2150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>6.1</v>
       </c>
@@ -2118,7 +2160,7 @@
       <c r="C56">
         <v>28</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="3">
         <v>21.5</v>
       </c>
       <c r="E56">
@@ -2137,7 +2179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>153.5</v>
       </c>
@@ -2147,7 +2189,7 @@
       <c r="C57">
         <v>82</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="3">
         <v>21.5</v>
       </c>
       <c r="E57">
@@ -2169,7 +2211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>11.8</v>
       </c>
@@ -2179,7 +2221,7 @@
       <c r="C58">
         <v>24</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="3">
         <v>21.5</v>
       </c>
       <c r="E58">
@@ -2198,7 +2240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>12.3</v>
       </c>
@@ -2208,7 +2250,7 @@
       <c r="C59">
         <v>61</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="3">
         <v>21.5</v>
       </c>
       <c r="E59">
@@ -2227,7 +2269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>12.4</v>
       </c>
@@ -2237,7 +2279,7 @@
       <c r="C60">
         <v>57</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="3">
         <v>21.5</v>
       </c>
       <c r="E60">
@@ -2256,7 +2298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>12.3</v>
       </c>
@@ -2266,7 +2308,7 @@
       <c r="C61">
         <v>52</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="3">
         <v>21.5</v>
       </c>
       <c r="E61">
@@ -2288,7 +2330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>2.9</v>
       </c>
@@ -2298,7 +2340,7 @@
       <c r="C62">
         <v>18</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="3">
         <v>21.5</v>
       </c>
       <c r="E62">
@@ -2320,7 +2362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>2.1</v>
       </c>
@@ -2330,7 +2372,7 @@
       <c r="C63">
         <v>23</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="3">
         <v>21.5</v>
       </c>
       <c r="E63">
@@ -2349,7 +2391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>9.8000000000000007</v>
       </c>
@@ -2359,7 +2401,7 @@
       <c r="C64">
         <v>24</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="3">
         <v>21.5</v>
       </c>
       <c r="E64">
@@ -2378,7 +2420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>6.8</v>
       </c>
@@ -2388,7 +2430,7 @@
       <c r="C65">
         <v>26</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="3">
         <v>21.5</v>
       </c>
       <c r="E65">
@@ -2407,7 +2449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>12.4</v>
       </c>
@@ -2417,7 +2459,7 @@
       <c r="C66">
         <v>24</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="3">
         <v>21.5</v>
       </c>
       <c r="E66">
@@ -2436,7 +2478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>12.4</v>
       </c>
@@ -2446,7 +2488,7 @@
       <c r="C67">
         <v>57</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="3">
         <v>21.5</v>
       </c>
       <c r="E67">
@@ -2465,7 +2507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>11.8</v>
       </c>
@@ -2475,7 +2517,7 @@
       <c r="C68">
         <v>41</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="3">
         <v>21.5</v>
       </c>
       <c r="E68">
@@ -2494,7 +2536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>12.3</v>
       </c>
@@ -2504,7 +2546,7 @@
       <c r="C69">
         <v>55</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="3">
         <v>21.5</v>
       </c>
       <c r="E69">
@@ -2523,7 +2565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>14</v>
       </c>
@@ -2533,7 +2575,7 @@
       <c r="C70">
         <v>40</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="3">
         <v>21.5</v>
       </c>
       <c r="E70">
@@ -2552,7 +2594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>11.8</v>
       </c>
@@ -2562,7 +2604,7 @@
       <c r="C71">
         <v>37</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="3">
         <v>21.5</v>
       </c>
       <c r="E71">
@@ -2584,7 +2626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>12.3</v>
       </c>
@@ -2594,7 +2636,7 @@
       <c r="C72">
         <v>55</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="3">
         <v>21.5</v>
       </c>
       <c r="E72">
@@ -2613,7 +2655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>2</v>
       </c>
@@ -2623,7 +2665,7 @@
       <c r="C73">
         <v>20</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="3">
         <v>21.5</v>
       </c>
       <c r="E73">
@@ -2642,7 +2684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>13.9</v>
       </c>
@@ -2652,7 +2694,7 @@
       <c r="C74">
         <v>29</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="3">
         <v>21.5</v>
       </c>
       <c r="E74">
@@ -2671,7 +2713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>9.6999999999999993</v>
       </c>
@@ -2681,7 +2723,7 @@
       <c r="C75">
         <v>42</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="3">
         <v>21.5</v>
       </c>
       <c r="E75">
@@ -2700,7 +2742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A76">
         <v>11.6</v>
       </c>
@@ -2710,7 +2752,7 @@
       <c r="C76">
         <v>25</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="3">
         <v>21.5</v>
       </c>
       <c r="E76">
@@ -2729,7 +2771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>14.2</v>
       </c>
@@ -2739,7 +2781,7 @@
       <c r="C77">
         <v>38</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="3">
         <v>21.5</v>
       </c>
       <c r="E77">
@@ -2758,7 +2800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A78">
         <v>11.8</v>
       </c>
@@ -2768,7 +2810,7 @@
       <c r="C78">
         <v>39</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="3">
         <v>21.5</v>
       </c>
       <c r="E78">
@@ -2787,7 +2829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A79">
         <v>24.8</v>
       </c>
@@ -2797,7 +2839,7 @@
       <c r="C79">
         <v>50</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="3">
         <v>21.5</v>
       </c>
       <c r="E79">
@@ -2816,7 +2858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A80">
         <v>12.4</v>
       </c>
@@ -2826,7 +2868,7 @@
       <c r="C80">
         <v>56</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="3">
         <v>21.5</v>
       </c>
       <c r="E80">
@@ -2845,7 +2887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A81">
         <v>34.799999999999997</v>
       </c>
@@ -2855,7 +2897,7 @@
       <c r="C81">
         <v>28</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="3">
         <v>20</v>
       </c>
       <c r="E81">
@@ -2874,7 +2916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A82">
         <v>14.2</v>
       </c>
@@ -2884,7 +2926,7 @@
       <c r="C82">
         <v>36</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="3">
         <v>20</v>
       </c>
       <c r="E82">
@@ -2903,7 +2945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A83">
         <v>5.2</v>
       </c>
@@ -2913,7 +2955,7 @@
       <c r="C83">
         <v>39</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="3">
         <v>20</v>
       </c>
       <c r="E83">
@@ -2932,7 +2974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A84">
         <v>10.5</v>
       </c>
@@ -2942,7 +2984,7 @@
       <c r="C84">
         <v>42</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="3">
         <v>20</v>
       </c>
       <c r="E84">
@@ -2967,7 +3009,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A85">
         <v>12.3</v>
       </c>
@@ -2977,7 +3019,7 @@
       <c r="C85">
         <v>57</v>
       </c>
-      <c r="D85">
+      <c r="D85" s="3">
         <v>20</v>
       </c>
       <c r="E85">
@@ -2996,7 +3038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A86">
         <v>11.8</v>
       </c>
@@ -3006,7 +3048,7 @@
       <c r="C86">
         <v>25</v>
       </c>
-      <c r="D86">
+      <c r="D86" s="3">
         <v>20</v>
       </c>
       <c r="E86">
@@ -3025,7 +3067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A87">
         <v>12.3</v>
       </c>
@@ -3035,7 +3077,7 @@
       <c r="C87">
         <v>58</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="3">
         <v>20</v>
       </c>
       <c r="E87">
@@ -3057,7 +3099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A88">
         <v>13.2</v>
       </c>
@@ -3067,7 +3109,7 @@
       <c r="C88">
         <v>51</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="3">
         <v>20</v>
       </c>
       <c r="E88">
@@ -3089,7 +3131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A89">
         <v>13</v>
       </c>
@@ -3099,7 +3141,7 @@
       <c r="C89">
         <v>45</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="3">
         <v>20</v>
       </c>
       <c r="E89">
@@ -3121,7 +3163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A90">
         <v>12.9</v>
       </c>
@@ -3131,7 +3173,7 @@
       <c r="C90">
         <v>32</v>
       </c>
-      <c r="D90">
+      <c r="D90" s="3">
         <v>20</v>
       </c>
       <c r="E90">
@@ -3150,7 +3192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A91">
         <v>13.9</v>
       </c>
@@ -3160,7 +3202,7 @@
       <c r="C91">
         <v>22</v>
       </c>
-      <c r="D91">
+      <c r="D91" s="3">
         <v>20</v>
       </c>
       <c r="E91">
@@ -3179,7 +3221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A92">
         <v>11.8</v>
       </c>
@@ -3189,7 +3231,7 @@
       <c r="C92">
         <v>37</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="3">
         <v>20</v>
       </c>
       <c r="E92">
@@ -3208,7 +3250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A93">
         <v>12.2</v>
       </c>
@@ -3218,7 +3260,7 @@
       <c r="C93">
         <v>60</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="3">
         <v>20</v>
       </c>
       <c r="E93">
@@ -3237,7 +3279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A94">
         <v>12.5</v>
       </c>
@@ -3247,7 +3289,7 @@
       <c r="C94">
         <v>51</v>
       </c>
-      <c r="D94">
+      <c r="D94" s="3">
         <v>20</v>
       </c>
       <c r="E94">
@@ -3266,7 +3308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A95">
         <v>12.4</v>
       </c>
@@ -3292,7 +3334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A96">
         <v>11.8</v>
       </c>
@@ -3302,7 +3344,7 @@
       <c r="C96">
         <v>21</v>
       </c>
-      <c r="D96">
+      <c r="D96" s="3">
         <v>20</v>
       </c>
       <c r="E96">
@@ -3324,7 +3366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A97">
         <v>11.8</v>
       </c>
@@ -3350,7 +3392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A98">
         <v>12.5</v>
       </c>
@@ -3360,7 +3402,7 @@
       <c r="C98">
         <v>57</v>
       </c>
-      <c r="D98">
+      <c r="D98" s="3">
         <v>20</v>
       </c>
       <c r="E98">
@@ -3379,7 +3421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A99">
         <v>15.7</v>
       </c>
@@ -3405,7 +3447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A100">
         <v>12.9</v>
       </c>
@@ -3431,7 +3473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A101">
         <v>6.4</v>
       </c>
@@ -3457,7 +3499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A102">
         <v>5.3</v>
       </c>
@@ -3483,7 +3525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A103">
         <v>26.2</v>
       </c>
@@ -3493,7 +3535,7 @@
       <c r="C103">
         <v>71</v>
       </c>
-      <c r="D103">
+      <c r="D103" s="3">
         <v>21</v>
       </c>
       <c r="E103">
@@ -3515,7 +3557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A104">
         <v>18.8</v>
       </c>
@@ -3544,7 +3586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A105">
         <v>4.9000000000000004</v>
       </c>
@@ -3554,7 +3596,7 @@
       <c r="C105">
         <v>25</v>
       </c>
-      <c r="D105">
+      <c r="D105" s="3">
         <v>21</v>
       </c>
       <c r="E105">
@@ -3576,7 +3618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A106">
         <v>12.4</v>
       </c>
@@ -3586,7 +3628,7 @@
       <c r="C106">
         <v>18</v>
       </c>
-      <c r="D106">
+      <c r="D106" s="3">
         <v>21</v>
       </c>
       <c r="E106">
@@ -3608,7 +3650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A107">
         <v>22.9</v>
       </c>
@@ -3618,7 +3660,7 @@
       <c r="C107">
         <v>45</v>
       </c>
-      <c r="D107">
+      <c r="D107" s="3">
         <v>20.5</v>
       </c>
       <c r="E107">
@@ -3637,7 +3679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A108">
         <v>162.69999999999999</v>
       </c>
@@ -3647,7 +3689,7 @@
       <c r="C108">
         <v>75</v>
       </c>
-      <c r="D108">
+      <c r="D108" s="3">
         <v>23</v>
       </c>
       <c r="E108">
@@ -3672,7 +3714,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A109">
         <v>4.9000000000000004</v>
       </c>
@@ -3682,7 +3724,7 @@
       <c r="C109">
         <v>26</v>
       </c>
-      <c r="D109">
+      <c r="D109" s="3">
         <v>21</v>
       </c>
       <c r="E109">
@@ -3701,7 +3743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A110">
         <v>11.8</v>
       </c>
@@ -3711,7 +3753,7 @@
       <c r="C110">
         <v>36</v>
       </c>
-      <c r="D110">
+      <c r="D110" s="3">
         <v>21</v>
       </c>
       <c r="E110">
@@ -3730,7 +3772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A111">
         <v>16.600000000000001</v>
       </c>
@@ -3740,7 +3782,7 @@
       <c r="C111">
         <v>56</v>
       </c>
-      <c r="D111">
+      <c r="D111" s="3">
         <v>21</v>
       </c>
       <c r="E111">
@@ -3759,7 +3801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A112">
         <v>12.4</v>
       </c>
@@ -3769,7 +3811,7 @@
       <c r="C112">
         <v>37</v>
       </c>
-      <c r="D112">
+      <c r="D112" s="3">
         <v>21</v>
       </c>
       <c r="E112">
@@ -3788,7 +3830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A113">
         <v>15.9</v>
       </c>
@@ -3798,7 +3840,7 @@
       <c r="C113">
         <v>25</v>
       </c>
-      <c r="D113">
+      <c r="D113" s="3">
         <v>21</v>
       </c>
       <c r="E113">
@@ -3817,7 +3859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A114">
         <v>5.0999999999999996</v>
       </c>
@@ -3827,7 +3869,7 @@
       <c r="C114">
         <v>21</v>
       </c>
-      <c r="D114">
+      <c r="D114" s="3">
         <v>23.5</v>
       </c>
       <c r="E114">
@@ -3846,7 +3888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A115">
         <v>22.4</v>
       </c>
@@ -3856,7 +3898,7 @@
       <c r="C115">
         <v>66</v>
       </c>
-      <c r="D115">
+      <c r="D115" s="3">
         <v>20.5</v>
       </c>
       <c r="E115">
@@ -3875,7 +3917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A116">
         <v>31.1</v>
       </c>
@@ -3885,7 +3927,7 @@
       <c r="C116">
         <v>42</v>
       </c>
-      <c r="D116">
+      <c r="D116" s="3">
         <v>20.5</v>
       </c>
       <c r="E116">
@@ -3904,7 +3946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A117">
         <v>4.9000000000000004</v>
       </c>
@@ -3914,7 +3956,7 @@
       <c r="C117">
         <v>27</v>
       </c>
-      <c r="D117">
+      <c r="D117" s="3">
         <v>20.5</v>
       </c>
       <c r="E117">
@@ -3933,7 +3975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A118">
         <v>11.8</v>
       </c>
@@ -3943,7 +3985,7 @@
       <c r="C118">
         <v>26</v>
       </c>
-      <c r="D118">
+      <c r="D118" s="3">
         <v>23</v>
       </c>
       <c r="E118">
@@ -3965,7 +4007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A119">
         <v>22.9</v>
       </c>
@@ -3975,7 +4017,7 @@
       <c r="C119">
         <v>42</v>
       </c>
-      <c r="D119">
+      <c r="D119" s="3">
         <v>23</v>
       </c>
       <c r="E119">
@@ -3997,7 +4039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A120">
         <v>12.4</v>
       </c>
@@ -4007,7 +4049,7 @@
       <c r="C120">
         <v>38</v>
       </c>
-      <c r="D120">
+      <c r="D120" s="3">
         <v>23</v>
       </c>
       <c r="E120">
@@ -4029,7 +4071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A121">
         <v>12.9</v>
       </c>
@@ -4039,7 +4081,7 @@
       <c r="C121">
         <v>40</v>
       </c>
-      <c r="D121">
+      <c r="D121" s="3">
         <v>23</v>
       </c>
       <c r="E121">
@@ -4058,7 +4100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A122">
         <v>11.8</v>
       </c>
@@ -4068,7 +4110,7 @@
       <c r="C122">
         <v>43</v>
       </c>
-      <c r="D122">
+      <c r="D122" s="3">
         <v>23</v>
       </c>
       <c r="E122">
@@ -4087,7 +4129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A123">
         <v>12.2</v>
       </c>
@@ -4097,7 +4139,7 @@
       <c r="C123">
         <v>58</v>
       </c>
-      <c r="D123">
+      <c r="D123" s="3">
         <v>23</v>
       </c>
       <c r="E123">
@@ -4116,7 +4158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A124">
         <v>24.8</v>
       </c>
@@ -4126,7 +4168,7 @@
       <c r="C124">
         <v>55</v>
       </c>
-      <c r="D124">
+      <c r="D124" s="3">
         <v>23</v>
       </c>
       <c r="E124">
@@ -4145,7 +4187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A125">
         <v>14.2</v>
       </c>
@@ -4155,7 +4197,7 @@
       <c r="C125">
         <v>24</v>
       </c>
-      <c r="D125">
+      <c r="D125" s="3">
         <v>23</v>
       </c>
       <c r="E125">
@@ -4174,7 +4216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A126">
         <v>11.8</v>
       </c>
@@ -4184,7 +4226,7 @@
       <c r="C126">
         <v>38</v>
       </c>
-      <c r="D126">
+      <c r="D126" s="3">
         <v>23</v>
       </c>
       <c r="E126">
@@ -4206,7 +4248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A127">
         <v>12.2</v>
       </c>
@@ -4216,7 +4258,7 @@
       <c r="C127">
         <v>57</v>
       </c>
-      <c r="D127">
+      <c r="D127" s="3">
         <v>23</v>
       </c>
       <c r="E127">
@@ -4238,7 +4280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A128">
         <v>24.7</v>
       </c>
@@ -4248,7 +4290,7 @@
       <c r="C128">
         <v>56</v>
       </c>
-      <c r="D128">
+      <c r="D128" s="3">
         <v>25</v>
       </c>
       <c r="E128">
@@ -4267,7 +4309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A129">
         <v>6.8</v>
       </c>
@@ -4277,7 +4319,7 @@
       <c r="C129">
         <v>46</v>
       </c>
-      <c r="D129">
+      <c r="D129" s="3">
         <v>24</v>
       </c>
       <c r="E129">
@@ -4296,7 +4338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A130">
         <v>17.3</v>
       </c>
@@ -4306,7 +4348,7 @@
       <c r="C130">
         <v>37</v>
       </c>
-      <c r="D130">
+      <c r="D130" s="3">
         <v>21.5</v>
       </c>
       <c r="E130">
@@ -4325,7 +4367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A131">
         <v>11.8</v>
       </c>
@@ -4335,7 +4377,7 @@
       <c r="C131">
         <v>44</v>
       </c>
-      <c r="D131">
+      <c r="D131" s="3">
         <v>21.5</v>
       </c>
       <c r="E131">
@@ -4354,7 +4396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A132">
         <v>15.9</v>
       </c>
@@ -4364,7 +4406,7 @@
       <c r="C132">
         <v>46</v>
       </c>
-      <c r="D132">
+      <c r="D132" s="3">
         <v>21.5</v>
       </c>
       <c r="E132">
@@ -4383,7 +4425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A133">
         <v>5.0999999999999996</v>
       </c>
@@ -4393,7 +4435,7 @@
       <c r="C133">
         <v>39</v>
       </c>
-      <c r="D133">
+      <c r="D133" s="3">
         <v>21.5</v>
       </c>
       <c r="E133">
@@ -4412,7 +4454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A134">
         <v>16.100000000000001</v>
       </c>
@@ -4422,7 +4464,7 @@
       <c r="C134">
         <v>33</v>
       </c>
-      <c r="D134">
+      <c r="D134" s="3">
         <v>21.5</v>
       </c>
       <c r="E134">
@@ -4441,7 +4483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A135">
         <v>11.8</v>
       </c>
@@ -4451,7 +4493,7 @@
       <c r="C135">
         <v>43</v>
       </c>
-      <c r="D135">
+      <c r="D135" s="3">
         <v>21.5</v>
       </c>
       <c r="E135">
@@ -4470,7 +4512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A136">
         <v>4.2</v>
       </c>
@@ -4480,7 +4522,7 @@
       <c r="C136">
         <v>26</v>
       </c>
-      <c r="D136">
+      <c r="D136" s="3">
         <v>21.5</v>
       </c>
       <c r="E136">
@@ -4499,7 +4541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A137">
         <v>17.399999999999999</v>
       </c>
@@ -4509,7 +4551,7 @@
       <c r="C137">
         <v>30</v>
       </c>
-      <c r="D137">
+      <c r="D137" s="3">
         <v>21.5</v>
       </c>
       <c r="E137">
@@ -4528,7 +4570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A138">
         <v>23.5</v>
       </c>
@@ -4538,7 +4580,7 @@
       <c r="C138">
         <v>25</v>
       </c>
-      <c r="D138">
+      <c r="D138" s="3">
         <v>21.5</v>
       </c>
       <c r="E138">
@@ -4560,7 +4602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A139">
         <v>11.8</v>
       </c>
@@ -4570,7 +4612,7 @@
       <c r="C139">
         <v>38</v>
       </c>
-      <c r="D139">
+      <c r="D139" s="3">
         <v>21.5</v>
       </c>
       <c r="E139">
@@ -4592,7 +4634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A140">
         <v>12.3</v>
       </c>
@@ -4602,7 +4644,7 @@
       <c r="C140">
         <v>61</v>
       </c>
-      <c r="D140">
+      <c r="D140" s="3">
         <v>21.5</v>
       </c>
       <c r="E140">
@@ -4624,7 +4666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A141">
         <v>16.100000000000001</v>
       </c>
@@ -4634,7 +4676,7 @@
       <c r="C141">
         <v>24</v>
       </c>
-      <c r="D141">
+      <c r="D141" s="3">
         <v>21.5</v>
       </c>
       <c r="E141">
@@ -4662,7 +4704,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A142">
         <v>11.8</v>
       </c>
@@ -4672,7 +4714,7 @@
       <c r="C142">
         <v>40</v>
       </c>
-      <c r="D142">
+      <c r="D142" s="3">
         <v>21.5</v>
       </c>
       <c r="E142">
@@ -4694,7 +4736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A143">
         <v>12.3</v>
       </c>
@@ -4704,7 +4746,7 @@
       <c r="C143">
         <v>58</v>
       </c>
-      <c r="D143">
+      <c r="D143" s="3">
         <v>21.5</v>
       </c>
       <c r="E143">
@@ -4723,7 +4765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A144">
         <v>12.4</v>
       </c>
@@ -4733,7 +4775,7 @@
       <c r="C144">
         <v>49</v>
       </c>
-      <c r="D144">
+      <c r="D144" s="3">
         <v>21.5</v>
       </c>
       <c r="E144">
@@ -4752,7 +4794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A145">
         <v>7</v>
       </c>
@@ -4762,7 +4804,7 @@
       <c r="C145">
         <v>25</v>
       </c>
-      <c r="D145">
+      <c r="D145" s="3">
         <v>21.5</v>
       </c>
       <c r="E145">
@@ -4781,7 +4823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A146">
         <v>11.8</v>
       </c>
@@ -4791,7 +4833,7 @@
       <c r="C146">
         <v>37</v>
       </c>
-      <c r="D146">
+      <c r="D146" s="3">
         <v>21.5</v>
       </c>
       <c r="E146">
@@ -4810,7 +4852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A147">
         <v>20.100000000000001</v>
       </c>
@@ -4820,7 +4862,7 @@
       <c r="C147">
         <v>41</v>
       </c>
-      <c r="D147">
+      <c r="D147" s="3">
         <v>21.5</v>
       </c>
       <c r="E147">
@@ -4839,7 +4881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A148">
         <v>20.8</v>
       </c>
@@ -4849,7 +4891,7 @@
       <c r="C148">
         <v>45</v>
       </c>
-      <c r="D148">
+      <c r="D148" s="3">
         <v>21.5</v>
       </c>
       <c r="E148">
@@ -4868,7 +4910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A149">
         <v>1.7</v>
       </c>
@@ -4878,7 +4920,7 @@
       <c r="C149">
         <v>14</v>
       </c>
-      <c r="D149">
+      <c r="D149" s="3">
         <v>21.5</v>
       </c>
       <c r="E149">
@@ -4900,7 +4942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A150">
         <v>35.9</v>
       </c>
@@ -4910,7 +4952,7 @@
       <c r="C150">
         <v>45</v>
       </c>
-      <c r="D150">
+      <c r="D150" s="3">
         <v>21.5</v>
       </c>
       <c r="E150">
@@ -4929,7 +4971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A151">
         <v>36.9</v>
       </c>
@@ -4939,7 +4981,7 @@
       <c r="C151">
         <v>52</v>
       </c>
-      <c r="D151">
+      <c r="D151" s="3">
         <v>21.5</v>
       </c>
       <c r="E151">
@@ -4958,7 +5000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A152">
         <v>16.8</v>
       </c>
@@ -4968,7 +5010,7 @@
       <c r="C152">
         <v>46</v>
       </c>
-      <c r="D152">
+      <c r="D152" s="3">
         <v>21.5</v>
       </c>
       <c r="E152">
@@ -4987,7 +5029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A153">
         <v>9.9</v>
       </c>
@@ -4997,7 +5039,7 @@
       <c r="C153">
         <v>28</v>
       </c>
-      <c r="D153">
+      <c r="D153" s="3">
         <v>21.5</v>
       </c>
       <c r="E153">
@@ -5016,7 +5058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A154">
         <v>22.9</v>
       </c>
@@ -5026,7 +5068,7 @@
       <c r="C154">
         <v>61</v>
       </c>
-      <c r="D154">
+      <c r="D154" s="3">
         <v>21.5</v>
       </c>
       <c r="E154">
@@ -5048,7 +5090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A155">
         <v>17.3</v>
       </c>
@@ -5058,7 +5100,7 @@
       <c r="C155">
         <v>61</v>
       </c>
-      <c r="D155">
+      <c r="D155" s="3">
         <v>21.5</v>
       </c>
       <c r="E155">
@@ -5080,7 +5122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A156">
         <v>11.8</v>
       </c>
@@ -5090,7 +5132,7 @@
       <c r="C156">
         <v>37</v>
       </c>
-      <c r="D156">
+      <c r="D156" s="3">
         <v>21.5</v>
       </c>
       <c r="E156">
@@ -5109,7 +5151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A157">
         <v>36.6</v>
       </c>
@@ -5119,7 +5161,7 @@
       <c r="C157">
         <v>80</v>
       </c>
-      <c r="D157">
+      <c r="D157" s="3">
         <v>21.5</v>
       </c>
       <c r="E157">
@@ -5141,7 +5183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A158">
         <v>44.9</v>
       </c>
@@ -5151,7 +5193,7 @@
       <c r="C158">
         <v>62</v>
       </c>
-      <c r="D158">
+      <c r="D158" s="3">
         <v>21.5</v>
       </c>
       <c r="E158">
@@ -5170,7 +5212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A159">
         <v>11.8</v>
       </c>
@@ -5180,7 +5222,7 @@
       <c r="C159">
         <v>34</v>
       </c>
-      <c r="D159">
+      <c r="D159" s="3">
         <v>21.5</v>
       </c>
       <c r="E159">
@@ -5202,7 +5244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A160">
         <v>21.6</v>
       </c>
@@ -5212,7 +5254,7 @@
       <c r="C160">
         <v>44</v>
       </c>
-      <c r="D160">
+      <c r="D160" s="3">
         <v>21.5</v>
       </c>
       <c r="E160">
@@ -5234,7 +5276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A161">
         <v>39.4</v>
       </c>
@@ -5244,7 +5286,7 @@
       <c r="C161">
         <v>60</v>
       </c>
-      <c r="D161">
+      <c r="D161" s="3">
         <v>21.5</v>
       </c>
       <c r="E161">
@@ -5266,7 +5308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A162">
         <v>5.0999999999999996</v>
       </c>
@@ -5276,7 +5318,7 @@
       <c r="C162">
         <v>39</v>
       </c>
-      <c r="D162">
+      <c r="D162" s="3">
         <v>21.5</v>
       </c>
       <c r="E162">
@@ -5295,7 +5337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A163">
         <v>26.6</v>
       </c>
@@ -5305,7 +5347,7 @@
       <c r="C163">
         <v>38</v>
       </c>
-      <c r="D163">
+      <c r="D163" s="3">
         <v>21.5</v>
       </c>
       <c r="E163">
@@ -5324,7 +5366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A164">
         <v>53.2</v>
       </c>
@@ -5334,7 +5376,7 @@
       <c r="C164">
         <v>71</v>
       </c>
-      <c r="D164">
+      <c r="D164" s="3">
         <v>21.5</v>
       </c>
       <c r="E164">
@@ -5353,7 +5395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A165">
         <v>18.899999999999999</v>
       </c>
@@ -5363,7 +5405,7 @@
       <c r="C165">
         <v>53</v>
       </c>
-      <c r="D165">
+      <c r="D165" s="3">
         <v>21.5</v>
       </c>
       <c r="E165">
@@ -5382,7 +5424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A166">
         <v>43.5</v>
       </c>
@@ -5392,7 +5434,7 @@
       <c r="C166">
         <v>80</v>
       </c>
-      <c r="D166">
+      <c r="D166" s="3">
         <v>21.5</v>
       </c>
       <c r="E166">
@@ -5411,7 +5453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A167">
         <v>6.1</v>
       </c>
@@ -5421,7 +5463,7 @@
       <c r="C167">
         <v>26</v>
       </c>
-      <c r="D167">
+      <c r="D167" s="3">
         <v>21.5</v>
       </c>
       <c r="E167">
@@ -5440,7 +5482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A168">
         <v>16.399999999999999</v>
       </c>
@@ -5450,7 +5492,7 @@
       <c r="C168">
         <v>49</v>
       </c>
-      <c r="D168">
+      <c r="D168" s="3">
         <v>21.5</v>
       </c>
       <c r="E168">
@@ -5469,7 +5511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A169">
         <v>12.3</v>
       </c>
@@ -5479,7 +5521,7 @@
       <c r="C169">
         <v>40</v>
       </c>
-      <c r="D169">
+      <c r="D169" s="3">
         <v>21.5</v>
       </c>
       <c r="E169">
@@ -5498,7 +5540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A170">
         <v>21.1</v>
       </c>
@@ -5508,7 +5550,7 @@
       <c r="C170">
         <v>36</v>
       </c>
-      <c r="D170">
+      <c r="D170" s="3">
         <v>21.5</v>
       </c>
       <c r="E170">
@@ -5527,7 +5569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A171">
         <v>21.1</v>
       </c>
@@ -5537,7 +5579,7 @@
       <c r="C171">
         <v>43</v>
       </c>
-      <c r="D171">
+      <c r="D171" s="3">
         <v>21.5</v>
       </c>
       <c r="E171">
@@ -5556,7 +5598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A172">
         <v>22.7</v>
       </c>
@@ -5566,7 +5608,7 @@
       <c r="C172">
         <v>55</v>
       </c>
-      <c r="D172">
+      <c r="D172" s="3">
         <v>21.5</v>
       </c>
       <c r="E172">
@@ -5585,7 +5627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A173">
         <v>44.4</v>
       </c>
@@ -5595,7 +5637,7 @@
       <c r="C173">
         <v>38</v>
       </c>
-      <c r="D173">
+      <c r="D173" s="3">
         <v>21.5</v>
       </c>
       <c r="E173">
@@ -5620,7 +5662,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A174">
         <v>35.799999999999997</v>
       </c>
@@ -5630,7 +5672,7 @@
       <c r="C174">
         <v>51</v>
       </c>
-      <c r="D174">
+      <c r="D174" s="3">
         <v>21.5</v>
       </c>
       <c r="E174">
@@ -5649,7 +5691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A175">
         <v>11.8</v>
       </c>
@@ -5659,7 +5701,7 @@
       <c r="C175">
         <v>44</v>
       </c>
-      <c r="D175">
+      <c r="D175" s="3">
         <v>21.5</v>
       </c>
       <c r="E175">
@@ -5678,7 +5720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A176">
         <v>26.2</v>
       </c>
@@ -5688,7 +5730,7 @@
       <c r="C176">
         <v>42</v>
       </c>
-      <c r="D176">
+      <c r="D176" s="3">
         <v>21.5</v>
       </c>
       <c r="E176">
@@ -5707,7 +5749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A177">
         <v>40.6</v>
       </c>
@@ -5717,7 +5759,7 @@
       <c r="C177">
         <v>44</v>
       </c>
-      <c r="D177">
+      <c r="D177" s="3">
         <v>21</v>
       </c>
       <c r="E177">
@@ -5736,7 +5778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A178">
         <v>12.4</v>
       </c>
@@ -5746,7 +5788,7 @@
       <c r="C178">
         <v>38</v>
       </c>
-      <c r="D178">
+      <c r="D178" s="3">
         <v>21</v>
       </c>
       <c r="E178">
@@ -5765,7 +5807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A179">
         <v>14.1</v>
       </c>
@@ -5775,7 +5817,7 @@
       <c r="C179">
         <v>47</v>
       </c>
-      <c r="D179">
+      <c r="D179" s="3">
         <v>21</v>
       </c>
       <c r="E179">
@@ -5794,7 +5836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A180">
         <v>58.7</v>
       </c>
@@ -5804,7 +5846,7 @@
       <c r="C180">
         <v>75</v>
       </c>
-      <c r="D180">
+      <c r="D180" s="3">
         <v>21</v>
       </c>
       <c r="E180">
@@ -5823,7 +5865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A181">
         <v>16.2</v>
       </c>
@@ -5833,7 +5875,7 @@
       <c r="C181">
         <v>29</v>
       </c>
-      <c r="D181">
+      <c r="D181" s="3">
         <v>21</v>
       </c>
       <c r="E181">
@@ -5852,7 +5894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A182">
         <v>12.3</v>
       </c>
@@ -5862,7 +5904,7 @@
       <c r="C182">
         <v>50</v>
       </c>
-      <c r="D182">
+      <c r="D182" s="3">
         <v>22.5</v>
       </c>
       <c r="E182">
@@ -5881,7 +5923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A183">
         <v>12.3</v>
       </c>
@@ -5891,7 +5933,7 @@
       <c r="C183">
         <v>52</v>
       </c>
-      <c r="D183">
+      <c r="D183" s="3">
         <v>22.5</v>
       </c>
       <c r="E183">
@@ -5913,7 +5955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A184">
         <v>12.4</v>
       </c>
@@ -5923,7 +5965,7 @@
       <c r="C184">
         <v>51</v>
       </c>
-      <c r="D184">
+      <c r="D184" s="3">
         <v>22.5</v>
       </c>
       <c r="E184">
@@ -5942,7 +5984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A185">
         <v>31.8</v>
       </c>
@@ -5952,7 +5994,7 @@
       <c r="C185">
         <v>59</v>
       </c>
-      <c r="D185">
+      <c r="D185" s="3">
         <v>22.5</v>
       </c>
       <c r="E185">
@@ -5971,7 +6013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A186">
         <v>12.3</v>
       </c>
@@ -5981,7 +6023,7 @@
       <c r="C186">
         <v>55</v>
       </c>
-      <c r="D186">
+      <c r="D186" s="3">
         <v>22.5</v>
       </c>
       <c r="E186">
@@ -6000,7 +6042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A187">
         <v>51.6</v>
       </c>
@@ -6010,7 +6052,7 @@
       <c r="C187">
         <v>73</v>
       </c>
-      <c r="D187">
+      <c r="D187" s="3">
         <v>22.5</v>
       </c>
       <c r="E187">
@@ -6029,7 +6071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A188">
         <v>38.6</v>
       </c>
@@ -6039,7 +6081,7 @@
       <c r="C188">
         <v>44</v>
       </c>
-      <c r="D188">
+      <c r="D188" s="3">
         <v>22.5</v>
       </c>
       <c r="E188">
@@ -6058,7 +6100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A189">
         <v>12.3</v>
       </c>
@@ -6068,7 +6110,7 @@
       <c r="C189">
         <v>41</v>
       </c>
-      <c r="D189">
+      <c r="D189" s="3">
         <v>22.5</v>
       </c>
       <c r="E189">
@@ -6087,7 +6129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A190">
         <v>81.2</v>
       </c>
@@ -6097,7 +6139,7 @@
       <c r="C190">
         <v>69</v>
       </c>
-      <c r="D190">
+      <c r="D190" s="3">
         <v>22</v>
       </c>
       <c r="E190">
@@ -6116,7 +6158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A191">
         <v>130.30000000000001</v>
       </c>
@@ -6126,7 +6168,7 @@
       <c r="C191">
         <v>85</v>
       </c>
-      <c r="D191">
+      <c r="D191" s="3">
         <v>22</v>
       </c>
       <c r="E191">
@@ -6145,7 +6187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A192">
         <v>67.2</v>
       </c>
@@ -6155,7 +6197,7 @@
       <c r="C192">
         <v>67</v>
       </c>
-      <c r="D192">
+      <c r="D192" s="3">
         <v>22</v>
       </c>
       <c r="E192">
@@ -6174,7 +6216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A193">
         <v>43.7</v>
       </c>
@@ -6184,7 +6226,7 @@
       <c r="C193">
         <v>44</v>
       </c>
-      <c r="D193">
+      <c r="D193" s="3">
         <v>22</v>
       </c>
       <c r="E193">
@@ -6212,7 +6254,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A194">
         <v>12.1</v>
       </c>
@@ -6222,7 +6264,7 @@
       <c r="C194">
         <v>43</v>
       </c>
-      <c r="D194">
+      <c r="D194" s="3">
         <v>22</v>
       </c>
       <c r="E194">
@@ -6247,7 +6289,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A195">
         <v>56.1</v>
       </c>
@@ -6257,7 +6299,7 @@
       <c r="C195">
         <v>82</v>
       </c>
-      <c r="D195">
+      <c r="D195" s="3">
         <v>22</v>
       </c>
       <c r="E195">
@@ -6276,7 +6318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A196">
         <v>39</v>
       </c>
@@ -6286,7 +6328,7 @@
       <c r="C196">
         <v>61</v>
       </c>
-      <c r="D196">
+      <c r="D196" s="3">
         <v>22</v>
       </c>
       <c r="E196">
@@ -6305,7 +6347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A197">
         <v>11.8</v>
       </c>
@@ -6315,7 +6357,7 @@
       <c r="C197">
         <v>41</v>
       </c>
-      <c r="D197">
+      <c r="D197" s="3">
         <v>21.5</v>
       </c>
       <c r="E197">
@@ -6334,7 +6376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A198">
         <v>38.5</v>
       </c>
@@ -6344,7 +6386,7 @@
       <c r="C198">
         <v>63</v>
       </c>
-      <c r="D198">
+      <c r="D198" s="3">
         <v>21.5</v>
       </c>
       <c r="E198">
@@ -6363,7 +6405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A199">
         <v>28.2</v>
       </c>
@@ -6373,7 +6415,7 @@
       <c r="C199">
         <v>54</v>
       </c>
-      <c r="D199">
+      <c r="D199" s="3">
         <v>21.5</v>
       </c>
       <c r="E199">
@@ -6392,7 +6434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A200">
         <v>2.9</v>
       </c>
@@ -6402,7 +6444,7 @@
       <c r="C200">
         <v>24</v>
       </c>
-      <c r="D200">
+      <c r="D200" s="3">
         <v>21.5</v>
       </c>
       <c r="E200">
@@ -6421,7 +6463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A201">
         <v>6.1</v>
       </c>
@@ -6431,7 +6473,7 @@
       <c r="C201">
         <v>24</v>
       </c>
-      <c r="D201">
+      <c r="D201" s="3">
         <v>21.5</v>
       </c>
       <c r="E201">
@@ -6450,7 +6492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A202">
         <v>19.600000000000001</v>
       </c>
@@ -6460,7 +6502,7 @@
       <c r="C202">
         <v>43</v>
       </c>
-      <c r="D202">
+      <c r="D202" s="3">
         <v>21.5</v>
       </c>
       <c r="E202">
@@ -6479,7 +6521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A203">
         <v>22.2</v>
       </c>
@@ -6505,7 +6547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A204">
         <v>13.6</v>
       </c>
@@ -6515,7 +6557,7 @@
       <c r="C204">
         <v>44</v>
       </c>
-      <c r="D204">
+      <c r="D204" s="3">
         <v>19</v>
       </c>
       <c r="E204">
@@ -6534,7 +6576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A205">
         <v>12.6</v>
       </c>
@@ -6560,7 +6602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A206">
         <v>8.6999999999999993</v>
       </c>
@@ -6570,7 +6612,7 @@
       <c r="C206">
         <v>28</v>
       </c>
-      <c r="D206">
+      <c r="D206" s="3">
         <v>22.5</v>
       </c>
       <c r="E206">
@@ -6592,7 +6634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A207">
         <v>7.9</v>
       </c>
@@ -6602,7 +6644,7 @@
       <c r="C207">
         <v>31</v>
       </c>
-      <c r="D207">
+      <c r="D207" s="3">
         <v>22.5</v>
       </c>
       <c r="E207">
@@ -6624,7 +6666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A208">
         <v>2.4</v>
       </c>
@@ -6634,7 +6676,7 @@
       <c r="C208">
         <v>26</v>
       </c>
-      <c r="D208">
+      <c r="D208" s="3">
         <v>20</v>
       </c>
       <c r="E208">
@@ -6653,7 +6695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A209">
         <v>4.9000000000000004</v>
       </c>
@@ -6663,7 +6705,7 @@
       <c r="C209">
         <v>26</v>
       </c>
-      <c r="D209">
+      <c r="D209" s="3">
         <v>20</v>
       </c>
       <c r="E209">
@@ -6682,7 +6724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A210">
         <v>18.100000000000001</v>
       </c>
@@ -6692,7 +6734,7 @@
       <c r="C210">
         <v>36</v>
       </c>
-      <c r="D210">
+      <c r="D210" s="3">
         <v>20</v>
       </c>
       <c r="E210">
@@ -6711,7 +6753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A211">
         <v>25.9</v>
       </c>
@@ -6721,7 +6763,7 @@
       <c r="C211">
         <v>39</v>
       </c>
-      <c r="D211">
+      <c r="D211" s="3">
         <v>20</v>
       </c>
       <c r="E211">
@@ -6740,7 +6782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A212">
         <v>1.3</v>
       </c>
@@ -6750,7 +6792,7 @@
       <c r="C212">
         <v>21</v>
       </c>
-      <c r="D212">
+      <c r="D212" s="3">
         <v>20</v>
       </c>
       <c r="E212">
@@ -6769,7 +6811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A213">
         <v>14.1</v>
       </c>
@@ -6779,7 +6821,7 @@
       <c r="C213">
         <v>22</v>
       </c>
-      <c r="D213">
+      <c r="D213" s="3">
         <v>20</v>
       </c>
       <c r="E213">
@@ -6798,7 +6840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A214">
         <v>13.4</v>
       </c>
@@ -6808,7 +6850,7 @@
       <c r="C214">
         <v>31</v>
       </c>
-      <c r="D214">
+      <c r="D214" s="3">
         <v>20</v>
       </c>
       <c r="E214">
@@ -6827,7 +6869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A215">
         <v>6.4</v>
       </c>
@@ -6837,7 +6879,7 @@
       <c r="C215">
         <v>33</v>
       </c>
-      <c r="D215">
+      <c r="D215" s="3">
         <v>20</v>
       </c>
       <c r="E215">
@@ -6856,7 +6898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A216">
         <v>12.9</v>
       </c>
@@ -6866,7 +6908,7 @@
       <c r="C216">
         <v>42</v>
       </c>
-      <c r="D216">
+      <c r="D216" s="3">
         <v>20</v>
       </c>
       <c r="E216">
@@ -6885,7 +6927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A217">
         <v>12.1</v>
       </c>
@@ -6895,7 +6937,7 @@
       <c r="C217">
         <v>33</v>
       </c>
-      <c r="D217">
+      <c r="D217" s="3">
         <v>22.5</v>
       </c>
       <c r="E217">
@@ -6914,7 +6956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A218">
         <v>15.7</v>
       </c>
@@ -6924,7 +6966,7 @@
       <c r="C218">
         <v>32</v>
       </c>
-      <c r="D218">
+      <c r="D218" s="3">
         <v>22.5</v>
       </c>
       <c r="E218">
@@ -6943,7 +6985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A219">
         <v>16.2</v>
       </c>
@@ -6953,7 +6995,7 @@
       <c r="C219">
         <v>26</v>
       </c>
-      <c r="D219">
+      <c r="D219" s="3">
         <v>22.5</v>
       </c>
       <c r="E219">
@@ -6972,7 +7014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A220">
         <v>12.8</v>
       </c>
@@ -6982,7 +7024,7 @@
       <c r="C220">
         <v>22</v>
       </c>
-      <c r="D220">
+      <c r="D220" s="3">
         <v>22.5</v>
       </c>
       <c r="E220">
@@ -7001,7 +7043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A221">
         <v>19</v>
       </c>
@@ -7011,7 +7053,7 @@
       <c r="C221">
         <v>58</v>
       </c>
-      <c r="D221">
+      <c r="D221" s="3">
         <v>22.5</v>
       </c>
       <c r="E221">
@@ -7033,7 +7075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A222">
         <v>29</v>
       </c>
@@ -7043,7 +7085,7 @@
       <c r="C222">
         <v>27</v>
       </c>
-      <c r="D222">
+      <c r="D222" s="3">
         <v>22.5</v>
       </c>
       <c r="E222">
@@ -7062,7 +7104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A223">
         <v>12.1</v>
       </c>
@@ -7072,7 +7114,7 @@
       <c r="C223">
         <v>32</v>
       </c>
-      <c r="D223">
+      <c r="D223" s="3">
         <v>22.5</v>
       </c>
       <c r="E223">
@@ -7091,7 +7133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A224">
         <v>12.3</v>
       </c>
@@ -7101,7 +7143,7 @@
       <c r="C224">
         <v>55</v>
       </c>
-      <c r="D224">
+      <c r="D224" s="3">
         <v>22.5</v>
       </c>
       <c r="E224">
@@ -7120,7 +7162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A225">
         <v>24.8</v>
       </c>
@@ -7130,7 +7172,7 @@
       <c r="C225">
         <v>56</v>
       </c>
-      <c r="D225">
+      <c r="D225" s="3">
         <v>22.5</v>
       </c>
       <c r="E225">
@@ -7149,7 +7191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A226">
         <v>12.9</v>
       </c>
@@ -7159,7 +7201,7 @@
       <c r="C226">
         <v>34</v>
       </c>
-      <c r="D226">
+      <c r="D226" s="3">
         <v>22.5</v>
       </c>
       <c r="E226">
@@ -7181,7 +7223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A227">
         <v>11.8</v>
       </c>
@@ -7191,7 +7233,7 @@
       <c r="C227">
         <v>39</v>
       </c>
-      <c r="D227">
+      <c r="D227" s="3">
         <v>22.5</v>
       </c>
       <c r="E227">
@@ -7210,7 +7252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A228">
         <v>31.4</v>
       </c>
@@ -7220,7 +7262,7 @@
       <c r="C228">
         <v>62</v>
       </c>
-      <c r="D228">
+      <c r="D228" s="3">
         <v>22.5</v>
       </c>
       <c r="E228">
@@ -7239,7 +7281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A229">
         <v>19</v>
       </c>
@@ -7249,7 +7291,7 @@
       <c r="C229">
         <v>53</v>
       </c>
-      <c r="D229">
+      <c r="D229" s="3">
         <v>22.5</v>
       </c>
       <c r="E229">
@@ -7271,7 +7313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A230">
         <v>13</v>
       </c>
@@ -7281,7 +7323,7 @@
       <c r="C230">
         <v>38</v>
       </c>
-      <c r="D230">
+      <c r="D230" s="3">
         <v>22.5</v>
       </c>
       <c r="E230">
@@ -7303,7 +7345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A231">
         <v>11.8</v>
       </c>
@@ -7313,7 +7355,7 @@
       <c r="C231">
         <v>42</v>
       </c>
-      <c r="D231">
+      <c r="D231" s="3">
         <v>22.5</v>
       </c>
       <c r="E231">
@@ -7332,7 +7374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A232">
         <v>13</v>
       </c>
@@ -7342,7 +7384,7 @@
       <c r="C232">
         <v>32</v>
       </c>
-      <c r="D232">
+      <c r="D232" s="3">
         <v>22.5</v>
       </c>
       <c r="E232">
@@ -7361,7 +7403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A233">
         <v>11.8</v>
       </c>
@@ -7371,7 +7413,7 @@
       <c r="C233">
         <v>43</v>
       </c>
-      <c r="D233">
+      <c r="D233" s="3">
         <v>22.5</v>
       </c>
       <c r="E233">
@@ -7390,7 +7432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A234">
         <v>27.1</v>
       </c>
@@ -7400,7 +7442,7 @@
       <c r="C234">
         <v>69</v>
       </c>
-      <c r="D234">
+      <c r="D234" s="3">
         <v>22.5</v>
       </c>
       <c r="E234">
@@ -7419,7 +7461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A235">
         <v>5.2</v>
       </c>
@@ -7429,7 +7471,7 @@
       <c r="C235">
         <v>38</v>
       </c>
-      <c r="D235">
+      <c r="D235" s="3">
         <v>22.5</v>
       </c>
       <c r="E235">
@@ -7448,7 +7490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A236">
         <v>19</v>
       </c>
@@ -7458,7 +7500,7 @@
       <c r="C236">
         <v>29</v>
       </c>
-      <c r="D236">
+      <c r="D236" s="3">
         <v>22.5</v>
       </c>
       <c r="E236">
@@ -7483,7 +7525,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A237">
         <v>12.4</v>
       </c>
@@ -7493,7 +7535,7 @@
       <c r="C237">
         <v>38</v>
       </c>
-      <c r="D237">
+      <c r="D237" s="3">
         <v>22.5</v>
       </c>
       <c r="E237">
@@ -7512,7 +7554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A238">
         <v>25.2</v>
       </c>
@@ -7522,7 +7564,7 @@
       <c r="C238">
         <v>55</v>
       </c>
-      <c r="D238">
+      <c r="D238" s="3">
         <v>22.5</v>
       </c>
       <c r="E238">
@@ -7541,7 +7583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A239">
         <v>14.3</v>
       </c>
@@ -7551,7 +7593,7 @@
       <c r="C239">
         <v>36</v>
       </c>
-      <c r="D239">
+      <c r="D239" s="3">
         <v>22.5</v>
       </c>
       <c r="E239">
@@ -7570,7 +7612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A240">
         <v>11.8</v>
       </c>
@@ -7580,7 +7622,7 @@
       <c r="C240">
         <v>40</v>
       </c>
-      <c r="D240">
+      <c r="D240" s="3">
         <v>22.5</v>
       </c>
       <c r="E240">
@@ -7599,7 +7641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A241">
         <v>16.899999999999999</v>
       </c>
@@ -7609,7 +7651,7 @@
       <c r="C241">
         <v>48</v>
       </c>
-      <c r="D241">
+      <c r="D241" s="3">
         <v>22.5</v>
       </c>
       <c r="E241">
@@ -7631,7 +7673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A242">
         <v>12.4</v>
       </c>
@@ -7641,7 +7683,7 @@
       <c r="C242">
         <v>55</v>
       </c>
-      <c r="D242">
+      <c r="D242" s="3">
         <v>22.5</v>
       </c>
       <c r="E242">
@@ -7663,7 +7705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A243">
         <v>17.399999999999999</v>
       </c>
@@ -7673,7 +7715,7 @@
       <c r="C243">
         <v>36</v>
       </c>
-      <c r="D243">
+      <c r="D243" s="3">
         <v>22.5</v>
       </c>
       <c r="E243">
@@ -7695,7 +7737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A244">
         <v>9.1999999999999993</v>
       </c>
@@ -7705,7 +7747,7 @@
       <c r="C244">
         <v>33</v>
       </c>
-      <c r="D244">
+      <c r="D244" s="3">
         <v>22.5</v>
       </c>
       <c r="E244">
@@ -7727,7 +7769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A245">
         <v>12.3</v>
       </c>
@@ -7737,7 +7779,7 @@
       <c r="C245">
         <v>54</v>
       </c>
-      <c r="D245">
+      <c r="D245" s="3">
         <v>22.5</v>
       </c>
       <c r="E245">
@@ -7759,7 +7801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A246">
         <v>13</v>
       </c>
@@ -7769,7 +7811,7 @@
       <c r="C246">
         <v>32</v>
       </c>
-      <c r="D246">
+      <c r="D246" s="3">
         <v>22.5</v>
       </c>
       <c r="E246">
@@ -7788,7 +7830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A247">
         <v>11.8</v>
       </c>
@@ -7798,7 +7840,7 @@
       <c r="C247">
         <v>16</v>
       </c>
-      <c r="D247">
+      <c r="D247" s="3">
         <v>22.5</v>
       </c>
       <c r="E247">
@@ -7820,7 +7862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A248">
         <v>13</v>
       </c>
@@ -7830,7 +7872,7 @@
       <c r="C248">
         <v>37</v>
       </c>
-      <c r="D248">
+      <c r="D248" s="3">
         <v>22.5</v>
       </c>
       <c r="E248">
@@ -7852,7 +7894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A249">
         <v>12.3</v>
       </c>
@@ -7862,7 +7904,7 @@
       <c r="C249">
         <v>42</v>
       </c>
-      <c r="D249">
+      <c r="D249" s="3">
         <v>22.5</v>
       </c>
       <c r="E249">
@@ -7881,7 +7923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A250">
         <v>12.3</v>
       </c>
@@ -7891,7 +7933,7 @@
       <c r="C250">
         <v>57</v>
       </c>
-      <c r="D250">
+      <c r="D250" s="3">
         <v>22.5</v>
       </c>
       <c r="E250">
@@ -7913,7 +7955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A251">
         <v>12.5</v>
       </c>
@@ -7923,7 +7965,7 @@
       <c r="C251">
         <v>57</v>
       </c>
-      <c r="D251">
+      <c r="D251" s="3">
         <v>22.5</v>
       </c>
       <c r="E251">
@@ -7945,7 +7987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A252">
         <v>31.5</v>
       </c>
@@ -7955,7 +7997,7 @@
       <c r="C252">
         <v>30</v>
       </c>
-      <c r="D252">
+      <c r="D252" s="3">
         <v>22.5</v>
       </c>
       <c r="E252">
@@ -7977,7 +8019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A253">
         <v>11.8</v>
       </c>
@@ -7987,7 +8029,7 @@
       <c r="C253">
         <v>42</v>
       </c>
-      <c r="D253">
+      <c r="D253" s="3">
         <v>22.5</v>
       </c>
       <c r="E253">
@@ -8006,7 +8048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A254">
         <v>24.9</v>
       </c>
@@ -8016,7 +8058,7 @@
       <c r="C254">
         <v>53</v>
       </c>
-      <c r="D254">
+      <c r="D254" s="3">
         <v>22.5</v>
       </c>
       <c r="E254">
@@ -8035,7 +8077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A255">
         <v>17</v>
       </c>
@@ -8045,7 +8087,7 @@
       <c r="C255">
         <v>46</v>
       </c>
-      <c r="D255">
+      <c r="D255" s="3">
         <v>22.5</v>
       </c>
       <c r="E255">
@@ -8067,7 +8109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A256">
         <v>2</v>
       </c>
@@ -8077,7 +8119,7 @@
       <c r="C256">
         <v>20</v>
       </c>
-      <c r="D256">
+      <c r="D256" s="3">
         <v>22.5</v>
       </c>
       <c r="E256">
@@ -8096,7 +8138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A257">
         <v>11.8</v>
       </c>
@@ -8106,7 +8148,7 @@
       <c r="C257">
         <v>33</v>
       </c>
-      <c r="D257">
+      <c r="D257" s="3">
         <v>22.5</v>
       </c>
       <c r="E257">
@@ -8125,7 +8167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A258">
         <v>7.4</v>
       </c>
@@ -8135,7 +8177,7 @@
       <c r="C258">
         <v>31</v>
       </c>
-      <c r="D258">
+      <c r="D258" s="3">
         <v>22.5</v>
       </c>
       <c r="E258">
@@ -8154,7 +8196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A259">
         <v>12.4</v>
       </c>
@@ -8164,7 +8206,7 @@
       <c r="C259">
         <v>55</v>
       </c>
-      <c r="D259">
+      <c r="D259" s="3">
         <v>22.5</v>
       </c>
       <c r="E259">
@@ -8186,7 +8228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A260">
         <v>2</v>
       </c>
@@ -8196,7 +8238,7 @@
       <c r="C260">
         <v>22</v>
       </c>
-      <c r="D260">
+      <c r="D260" s="3">
         <v>22.5</v>
       </c>
       <c r="E260">
@@ -8215,7 +8257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A261">
         <v>14</v>
       </c>
@@ -8225,7 +8267,7 @@
       <c r="C261">
         <v>41</v>
       </c>
-      <c r="D261">
+      <c r="D261" s="3">
         <v>22.5</v>
       </c>
       <c r="E261">
@@ -8244,7 +8286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A262">
         <v>25.7</v>
       </c>
@@ -8254,7 +8296,7 @@
       <c r="C262">
         <v>45</v>
       </c>
-      <c r="D262">
+      <c r="D262" s="3">
         <v>22.5</v>
       </c>
       <c r="E262">
@@ -8273,7 +8315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A263">
         <v>24.5</v>
       </c>
@@ -8302,7 +8344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A264">
         <v>11.8</v>
       </c>
@@ -8312,7 +8354,7 @@
       <c r="C264">
         <v>28</v>
       </c>
-      <c r="D264">
+      <c r="D264" s="3">
         <v>22.5</v>
       </c>
       <c r="E264">
@@ -8331,7 +8373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A265">
         <v>4.0999999999999996</v>
       </c>
@@ -8341,7 +8383,7 @@
       <c r="C265">
         <v>24</v>
       </c>
-      <c r="D265">
+      <c r="D265" s="3">
         <v>22.5</v>
       </c>
       <c r="E265">
@@ -8360,7 +8402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A266">
         <v>4.2</v>
       </c>
@@ -8370,7 +8412,7 @@
       <c r="C266">
         <v>29</v>
       </c>
-      <c r="D266">
+      <c r="D266" s="3">
         <v>22</v>
       </c>
       <c r="E266">
@@ -8389,7 +8431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A267">
         <v>4.2</v>
       </c>
@@ -8399,7 +8441,7 @@
       <c r="C267">
         <v>29</v>
       </c>
-      <c r="D267">
+      <c r="D267" s="3">
         <v>22</v>
       </c>
       <c r="E267">
@@ -8421,7 +8463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A268">
         <v>16</v>
       </c>
@@ -8431,7 +8473,7 @@
       <c r="C268">
         <v>40</v>
       </c>
-      <c r="D268">
+      <c r="D268" s="3">
         <v>22</v>
       </c>
       <c r="E268">
@@ -8450,7 +8492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A269">
         <v>22.9</v>
       </c>
@@ -8476,7 +8518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A270">
         <v>16</v>
       </c>
@@ -8502,7 +8544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A271">
         <v>15.4</v>
       </c>
@@ -8512,7 +8554,7 @@
       <c r="C271">
         <v>50</v>
       </c>
-      <c r="D271">
+      <c r="D271" s="3">
         <v>22</v>
       </c>
       <c r="E271">
@@ -8531,7 +8573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A272">
         <v>16</v>
       </c>
@@ -8541,7 +8583,7 @@
       <c r="C272">
         <v>41</v>
       </c>
-      <c r="D272">
+      <c r="D272" s="3">
         <v>22</v>
       </c>
       <c r="E272">
@@ -8560,7 +8602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A273">
         <v>4.2</v>
       </c>
@@ -8570,7 +8612,7 @@
       <c r="C273">
         <v>32</v>
       </c>
-      <c r="D273">
+      <c r="D273" s="3">
         <v>22</v>
       </c>
       <c r="E273">
@@ -8589,7 +8631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A274">
         <v>101.9</v>
       </c>
@@ -8599,7 +8641,7 @@
       <c r="C274">
         <v>75</v>
       </c>
-      <c r="D274">
+      <c r="D274" s="3">
         <v>22</v>
       </c>
       <c r="E274">
@@ -8618,7 +8660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A275">
         <v>93.9</v>
       </c>
@@ -8628,7 +8670,7 @@
       <c r="C275">
         <v>88</v>
       </c>
-      <c r="D275">
+      <c r="D275" s="3">
         <v>23</v>
       </c>
       <c r="E275">
@@ -8650,7 +8692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A276">
         <v>25.7</v>
       </c>
@@ -8660,7 +8702,7 @@
       <c r="C276">
         <v>50</v>
       </c>
-      <c r="D276">
+      <c r="D276" s="3">
         <v>22</v>
       </c>
       <c r="E276">
@@ -8688,7 +8730,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A277">
         <v>16</v>
       </c>
@@ -8698,7 +8740,7 @@
       <c r="C277">
         <v>40</v>
       </c>
-      <c r="D277">
+      <c r="D277" s="3">
         <v>22</v>
       </c>
       <c r="E277">
@@ -8717,7 +8759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A278">
         <v>16.100000000000001</v>
       </c>
@@ -8727,7 +8769,7 @@
       <c r="C278">
         <v>32</v>
       </c>
-      <c r="D278">
+      <c r="D278" s="3">
         <v>22</v>
       </c>
       <c r="E278">
@@ -8746,7 +8788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A279">
         <v>16</v>
       </c>
@@ -8756,7 +8798,7 @@
       <c r="C279">
         <v>40</v>
       </c>
-      <c r="D279">
+      <c r="D279" s="3">
         <v>22</v>
       </c>
       <c r="E279">
@@ -8778,7 +8820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A280">
         <v>16</v>
       </c>
@@ -8788,7 +8830,7 @@
       <c r="C280">
         <v>41</v>
       </c>
-      <c r="D280">
+      <c r="D280" s="3">
         <v>22</v>
       </c>
       <c r="E280">
@@ -8807,7 +8849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A281">
         <v>24.7</v>
       </c>
@@ -8817,7 +8859,7 @@
       <c r="C281">
         <v>26</v>
       </c>
-      <c r="D281">
+      <c r="D281" s="3">
         <v>22</v>
       </c>
       <c r="E281">
@@ -8836,7 +8878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A282">
         <v>16</v>
       </c>
@@ -8846,7 +8888,7 @@
       <c r="C282">
         <v>42</v>
       </c>
-      <c r="D282">
+      <c r="D282" s="3">
         <v>22</v>
       </c>
       <c r="E282">
@@ -8865,7 +8907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A283">
         <v>15.4</v>
       </c>
@@ -8875,7 +8917,7 @@
       <c r="C283">
         <v>43</v>
       </c>
-      <c r="D283">
+      <c r="D283" s="3">
         <v>22</v>
       </c>
       <c r="E283">
@@ -8894,7 +8936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A284">
         <v>16</v>
       </c>
@@ -8904,7 +8946,7 @@
       <c r="C284">
         <v>40</v>
       </c>
-      <c r="D284">
+      <c r="D284" s="3">
         <v>22</v>
       </c>
       <c r="E284">
@@ -8923,7 +8965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A285">
         <v>32.1</v>
       </c>
@@ -8933,7 +8975,7 @@
       <c r="C285">
         <v>50</v>
       </c>
-      <c r="D285">
+      <c r="D285" s="3">
         <v>22</v>
       </c>
       <c r="E285">
@@ -8952,7 +8994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A286">
         <v>25.9</v>
       </c>
@@ -8962,7 +9004,7 @@
       <c r="C286">
         <v>40</v>
       </c>
-      <c r="D286">
+      <c r="D286" s="3">
         <v>22</v>
       </c>
       <c r="E286">
@@ -8981,7 +9023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A287">
         <v>48.6</v>
       </c>
@@ -8991,7 +9033,7 @@
       <c r="C287">
         <v>44</v>
       </c>
-      <c r="D287">
+      <c r="D287" s="3">
         <v>22</v>
       </c>
       <c r="E287">
@@ -9010,7 +9052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A288">
         <v>37.200000000000003</v>
       </c>
@@ -9020,7 +9062,7 @@
       <c r="C288">
         <v>45</v>
       </c>
-      <c r="D288">
+      <c r="D288" s="3">
         <v>22</v>
       </c>
       <c r="E288">
@@ -9042,7 +9084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A289">
         <v>28.8</v>
       </c>
@@ -9052,7 +9094,7 @@
       <c r="C289">
         <v>35</v>
       </c>
-      <c r="D289">
+      <c r="D289" s="3">
         <v>22</v>
       </c>
       <c r="E289">
@@ -9074,7 +9116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A290">
         <v>6.7</v>
       </c>
@@ -9084,7 +9126,7 @@
       <c r="C290">
         <v>30</v>
       </c>
-      <c r="D290">
+      <c r="D290" s="3">
         <v>22</v>
       </c>
       <c r="E290">
@@ -9103,7 +9145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A291">
         <v>7.4</v>
       </c>
@@ -9113,7 +9155,7 @@
       <c r="C291">
         <v>25</v>
       </c>
-      <c r="D291">
+      <c r="D291" s="3">
         <v>22</v>
       </c>
       <c r="E291">
@@ -9135,7 +9177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A292">
         <v>17.3</v>
       </c>
@@ -9145,7 +9187,7 @@
       <c r="C292">
         <v>22</v>
       </c>
-      <c r="D292">
+      <c r="D292" s="3">
         <v>22</v>
       </c>
       <c r="E292">
@@ -9167,7 +9209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A293">
         <v>6.6</v>
       </c>
@@ -9177,7 +9219,7 @@
       <c r="C293">
         <v>43</v>
       </c>
-      <c r="D293">
+      <c r="D293" s="3">
         <v>22</v>
       </c>
       <c r="E293">
@@ -9196,7 +9238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A294">
         <v>14.3</v>
       </c>
@@ -9206,7 +9248,7 @@
       <c r="C294">
         <v>26</v>
       </c>
-      <c r="D294">
+      <c r="D294" s="3">
         <v>22</v>
       </c>
       <c r="E294">
@@ -9225,7 +9267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A295">
         <v>13.3</v>
       </c>
@@ -9235,7 +9277,7 @@
       <c r="C295">
         <v>33</v>
       </c>
-      <c r="D295">
+      <c r="D295" s="3">
         <v>22</v>
       </c>
       <c r="E295">
@@ -9254,7 +9296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A296">
         <v>8.3000000000000007</v>
       </c>
@@ -9264,7 +9306,7 @@
       <c r="C296">
         <v>26</v>
       </c>
-      <c r="D296">
+      <c r="D296" s="3">
         <v>22</v>
       </c>
       <c r="E296">
@@ -9283,7 +9325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A297">
         <v>12.7</v>
       </c>
@@ -9293,7 +9335,7 @@
       <c r="C297">
         <v>39</v>
       </c>
-      <c r="D297">
+      <c r="D297" s="3">
         <v>22</v>
       </c>
       <c r="E297">
@@ -9315,7 +9357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A298">
         <v>16.5</v>
       </c>
@@ -9325,7 +9367,7 @@
       <c r="C298">
         <v>47</v>
       </c>
-      <c r="D298">
+      <c r="D298" s="3">
         <v>22</v>
       </c>
       <c r="E298">
@@ -9344,7 +9386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A299">
         <v>20.6</v>
       </c>
@@ -9354,7 +9396,7 @@
       <c r="C299">
         <v>38</v>
       </c>
-      <c r="D299">
+      <c r="D299" s="3">
         <v>22</v>
       </c>
       <c r="E299">
@@ -9373,7 +9415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A300">
         <v>16.3</v>
       </c>
@@ -9383,7 +9425,7 @@
       <c r="C300">
         <v>58</v>
       </c>
-      <c r="D300">
+      <c r="D300" s="3">
         <v>22</v>
       </c>
       <c r="E300">
@@ -9402,7 +9444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A301">
         <v>18.7</v>
       </c>
@@ -9412,7 +9454,7 @@
       <c r="C301">
         <v>65</v>
       </c>
-      <c r="D301">
+      <c r="D301" s="3">
         <v>25</v>
       </c>
       <c r="E301">
@@ -9434,7 +9476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A302">
         <v>36.5</v>
       </c>
@@ -9444,7 +9486,7 @@
       <c r="C302">
         <v>54</v>
       </c>
-      <c r="D302">
+      <c r="D302" s="3">
         <v>23</v>
       </c>
       <c r="E302">
@@ -9466,7 +9508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A303">
         <v>19</v>
       </c>
@@ -9476,7 +9518,7 @@
       <c r="C303">
         <v>35</v>
       </c>
-      <c r="D303">
+      <c r="D303" s="3">
         <v>22</v>
       </c>
       <c r="E303">
@@ -9498,7 +9540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A304">
         <v>16.600000000000001</v>
       </c>
@@ -9508,7 +9550,7 @@
       <c r="C304">
         <v>46</v>
       </c>
-      <c r="D304">
+      <c r="D304" s="3">
         <v>22</v>
       </c>
       <c r="E304">
@@ -9530,7 +9572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A305">
         <v>29.9</v>
       </c>
@@ -9540,7 +9582,7 @@
       <c r="C305">
         <v>32</v>
       </c>
-      <c r="D305">
+      <c r="D305" s="3">
         <v>22</v>
       </c>
       <c r="E305">
@@ -9562,7 +9604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A306">
         <v>16</v>
       </c>
@@ -9572,7 +9614,7 @@
       <c r="C306">
         <v>42</v>
       </c>
-      <c r="D306">
+      <c r="D306" s="3">
         <v>22</v>
       </c>
       <c r="E306">
@@ -9591,7 +9633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A307">
         <v>21.1</v>
       </c>
@@ -9601,7 +9643,7 @@
       <c r="C307">
         <v>33</v>
       </c>
-      <c r="D307">
+      <c r="D307" s="3">
         <v>22</v>
       </c>
       <c r="E307">
@@ -9623,7 +9665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A308">
         <v>16</v>
       </c>
@@ -9633,7 +9675,7 @@
       <c r="C308">
         <v>40</v>
       </c>
-      <c r="D308">
+      <c r="D308" s="3">
         <v>22</v>
       </c>
       <c r="E308">
@@ -9652,7 +9694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A309">
         <v>11.9</v>
       </c>
@@ -9662,7 +9704,7 @@
       <c r="C309">
         <v>34</v>
       </c>
-      <c r="D309">
+      <c r="D309" s="3">
         <v>22</v>
       </c>
       <c r="E309">
@@ -9681,7 +9723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A310">
         <v>10.1</v>
       </c>
@@ -9691,7 +9733,7 @@
       <c r="C310">
         <v>35</v>
       </c>
-      <c r="D310">
+      <c r="D310" s="3">
         <v>22</v>
       </c>
       <c r="E310">
@@ -9710,7 +9752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A311">
         <v>31.9</v>
       </c>
@@ -9720,7 +9762,7 @@
       <c r="C311">
         <v>33</v>
       </c>
-      <c r="D311">
+      <c r="D311" s="3">
         <v>22</v>
       </c>
       <c r="E311">
@@ -9739,7 +9781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A312">
         <v>18.7</v>
       </c>
@@ -9749,7 +9791,7 @@
       <c r="C312">
         <v>60</v>
       </c>
-      <c r="D312">
+      <c r="D312" s="3">
         <v>22</v>
       </c>
       <c r="E312">
@@ -9768,7 +9810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A313">
         <v>10.8</v>
       </c>
@@ -9778,7 +9820,7 @@
       <c r="C313">
         <v>48</v>
       </c>
-      <c r="D313">
+      <c r="D313" s="3">
         <v>22</v>
       </c>
       <c r="E313">
@@ -9800,7 +9842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A314">
         <v>19.8</v>
       </c>
@@ -9810,7 +9852,7 @@
       <c r="C314">
         <v>56</v>
       </c>
-      <c r="D314">
+      <c r="D314" s="3">
         <v>22</v>
       </c>
       <c r="E314">
@@ -9832,7 +9874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A315">
         <v>11.3</v>
       </c>
@@ -9842,7 +9884,7 @@
       <c r="C315">
         <v>38</v>
       </c>
-      <c r="D315">
+      <c r="D315" s="3">
         <v>22</v>
       </c>
       <c r="E315">
@@ -9867,7 +9909,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A316">
         <v>11.5</v>
       </c>
@@ -9877,7 +9919,7 @@
       <c r="C316">
         <v>53</v>
       </c>
-      <c r="D316">
+      <c r="D316" s="3">
         <v>22</v>
       </c>
       <c r="E316">
@@ -9896,7 +9938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A317">
         <v>21.4</v>
       </c>
@@ -9906,7 +9948,7 @@
       <c r="C317">
         <v>51</v>
       </c>
-      <c r="D317">
+      <c r="D317" s="3">
         <v>22</v>
       </c>
       <c r="E317">
@@ -9925,7 +9967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A318">
         <v>32</v>
       </c>
@@ -9935,7 +9977,7 @@
       <c r="C318">
         <v>53</v>
       </c>
-      <c r="D318">
+      <c r="D318" s="3">
         <v>22</v>
       </c>
       <c r="E318">
@@ -9954,7 +9996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A319">
         <v>41.9</v>
       </c>
@@ -9964,7 +10006,7 @@
       <c r="C319">
         <v>53</v>
       </c>
-      <c r="D319">
+      <c r="D319" s="3">
         <v>22</v>
       </c>
       <c r="E319">
@@ -9983,7 +10025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A320">
         <v>211</v>
       </c>
@@ -9993,7 +10035,7 @@
       <c r="C320">
         <v>80</v>
       </c>
-      <c r="D320">
+      <c r="D320" s="3">
         <v>22</v>
       </c>
       <c r="E320">
@@ -10012,7 +10054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A321">
         <v>216.1</v>
       </c>
@@ -10022,7 +10064,7 @@
       <c r="C321">
         <v>90</v>
       </c>
-      <c r="D321">
+      <c r="D321" s="3">
         <v>22</v>
       </c>
       <c r="E321">
@@ -10044,7 +10086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A322">
         <v>25.5</v>
       </c>
@@ -10054,7 +10096,7 @@
       <c r="C322">
         <v>27</v>
       </c>
-      <c r="D322">
+      <c r="D322" s="3">
         <v>22</v>
       </c>
       <c r="E322">
@@ -10076,7 +10118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A323">
         <v>16.600000000000001</v>
       </c>
@@ -10086,7 +10128,7 @@
       <c r="C323">
         <v>52</v>
       </c>
-      <c r="D323">
+      <c r="D323" s="3">
         <v>22</v>
       </c>
       <c r="E323">
@@ -10108,7 +10150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A324">
         <v>25.9</v>
       </c>
@@ -10118,7 +10160,7 @@
       <c r="C324">
         <v>43</v>
       </c>
-      <c r="D324">
+      <c r="D324" s="3">
         <v>22</v>
       </c>
       <c r="E324">
@@ -10137,7 +10179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A325">
         <v>16.5</v>
       </c>
@@ -10147,7 +10189,7 @@
       <c r="C325">
         <v>48</v>
       </c>
-      <c r="D325">
+      <c r="D325" s="3">
         <v>22</v>
       </c>
       <c r="E325">
@@ -10166,7 +10208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A326">
         <v>22.1</v>
       </c>
@@ -10176,7 +10218,7 @@
       <c r="C326">
         <v>29</v>
       </c>
-      <c r="D326">
+      <c r="D326" s="3">
         <v>22</v>
       </c>
       <c r="E326">
@@ -10195,7 +10237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A327">
         <v>16.600000000000001</v>
       </c>
@@ -10205,7 +10247,7 @@
       <c r="C327">
         <v>49</v>
       </c>
-      <c r="D327">
+      <c r="D327" s="3">
         <v>22</v>
       </c>
       <c r="E327">
@@ -10230,7 +10272,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A328">
         <v>15.4</v>
       </c>
@@ -10240,7 +10282,7 @@
       <c r="C328">
         <v>43</v>
       </c>
-      <c r="D328">
+      <c r="D328" s="3">
         <v>22</v>
       </c>
       <c r="E328">
@@ -10259,7 +10301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A329">
         <v>16.5</v>
       </c>
@@ -10269,7 +10311,7 @@
       <c r="C329">
         <v>43</v>
       </c>
-      <c r="D329">
+      <c r="D329" s="3">
         <v>22</v>
       </c>
       <c r="E329">
@@ -10288,7 +10330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A330">
         <v>15.4</v>
       </c>
@@ -10298,7 +10340,7 @@
       <c r="C330">
         <v>21</v>
       </c>
-      <c r="D330">
+      <c r="D330" s="3">
         <v>22</v>
       </c>
       <c r="E330">
@@ -10317,7 +10359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A331">
         <v>18.399999999999999</v>
       </c>
@@ -10327,7 +10369,7 @@
       <c r="C331">
         <v>59</v>
       </c>
-      <c r="D331">
+      <c r="D331" s="3">
         <v>22</v>
       </c>
       <c r="E331">
@@ -10346,7 +10388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A332">
         <v>39.5</v>
       </c>
@@ -10356,7 +10398,7 @@
       <c r="C332">
         <v>58</v>
       </c>
-      <c r="D332">
+      <c r="D332" s="3">
         <v>22</v>
       </c>
       <c r="E332">
@@ -10375,7 +10417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A333">
         <v>21.5</v>
       </c>
@@ -10385,7 +10427,7 @@
       <c r="C333">
         <v>47</v>
       </c>
-      <c r="D333">
+      <c r="D333" s="3">
         <v>25</v>
       </c>
       <c r="E333">
@@ -10407,7 +10449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A334">
         <v>4.8</v>
       </c>
@@ -10417,7 +10459,7 @@
       <c r="C334">
         <v>26</v>
       </c>
-      <c r="D334">
+      <c r="D334" s="3">
         <v>25</v>
       </c>
       <c r="E334">
@@ -10436,7 +10478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A335">
         <v>100.9</v>
       </c>
@@ -10446,7 +10488,7 @@
       <c r="C335">
         <v>87</v>
       </c>
-      <c r="D335">
+      <c r="D335" s="3">
         <v>23.5</v>
       </c>
       <c r="E335">
@@ -10465,7 +10507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A336">
         <v>129.69999999999999</v>
       </c>
@@ -10475,7 +10517,7 @@
       <c r="C336">
         <v>58</v>
       </c>
-      <c r="D336">
+      <c r="D336" s="3">
         <v>24</v>
       </c>
       <c r="E336">
@@ -10497,7 +10539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A337">
         <v>16.600000000000001</v>
       </c>
@@ -10507,7 +10549,7 @@
       <c r="C337">
         <v>43</v>
       </c>
-      <c r="D337">
+      <c r="D337" s="3">
         <v>21.5</v>
       </c>
       <c r="E337">
@@ -10526,7 +10568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A338">
         <v>15.4</v>
       </c>
@@ -10536,7 +10578,7 @@
       <c r="C338">
         <v>50</v>
       </c>
-      <c r="D338">
+      <c r="D338" s="3">
         <v>21.5</v>
       </c>
       <c r="E338">
@@ -10555,7 +10597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A339">
         <v>16</v>
       </c>
@@ -10565,7 +10607,7 @@
       <c r="C339">
         <v>45</v>
       </c>
-      <c r="D339">
+      <c r="D339" s="3">
         <v>22</v>
       </c>
       <c r="E339">
@@ -10584,7 +10626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A340">
         <v>16</v>
       </c>
@@ -10594,7 +10636,7 @@
       <c r="C340">
         <v>41</v>
       </c>
-      <c r="D340">
+      <c r="D340" s="3">
         <v>22</v>
       </c>
       <c r="E340">
@@ -10613,7 +10655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A341">
         <v>15.4</v>
       </c>
@@ -10623,7 +10665,7 @@
       <c r="C341">
         <v>45</v>
       </c>
-      <c r="D341">
+      <c r="D341" s="3">
         <v>22</v>
       </c>
       <c r="E341">
@@ -10642,7 +10684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A342">
         <v>16</v>
       </c>
@@ -10652,7 +10694,7 @@
       <c r="C342">
         <v>43</v>
       </c>
-      <c r="D342">
+      <c r="D342" s="3">
         <v>22</v>
       </c>
       <c r="E342">
@@ -10671,7 +10713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A343">
         <v>21</v>
       </c>
@@ -10681,7 +10723,7 @@
       <c r="C343">
         <v>37</v>
       </c>
-      <c r="D343">
+      <c r="D343" s="3">
         <v>22</v>
       </c>
       <c r="E343">
@@ -10700,7 +10742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A344">
         <v>15.4</v>
       </c>
@@ -10710,7 +10752,7 @@
       <c r="C344">
         <v>47</v>
       </c>
-      <c r="D344">
+      <c r="D344" s="3">
         <v>22</v>
       </c>
       <c r="E344">
@@ -10729,7 +10771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A345">
         <v>16</v>
       </c>
@@ -10739,7 +10781,7 @@
       <c r="C345">
         <v>42</v>
       </c>
-      <c r="D345">
+      <c r="D345" s="3">
         <v>22</v>
       </c>
       <c r="E345">
@@ -10758,7 +10800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A346">
         <v>16.100000000000001</v>
       </c>
@@ -10768,7 +10810,7 @@
       <c r="C346">
         <v>30</v>
       </c>
-      <c r="D346">
+      <c r="D346" s="3">
         <v>25</v>
       </c>
       <c r="E346">
@@ -10790,7 +10832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A347">
         <v>16</v>
       </c>
@@ -10800,7 +10842,7 @@
       <c r="C347">
         <v>42</v>
       </c>
-      <c r="D347">
+      <c r="D347" s="3">
         <v>22</v>
       </c>
       <c r="E347">
@@ -10819,7 +10861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A348">
         <v>15.4</v>
       </c>
@@ -10829,7 +10871,7 @@
       <c r="C348">
         <v>40</v>
       </c>
-      <c r="D348">
+      <c r="D348" s="3">
         <v>22</v>
       </c>
       <c r="E348">
@@ -10848,7 +10890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A349">
         <v>17.2</v>
       </c>
@@ -10858,7 +10900,7 @@
       <c r="C349">
         <v>35</v>
       </c>
-      <c r="D349">
+      <c r="D349" s="3">
         <v>22</v>
       </c>
       <c r="E349">
@@ -10877,7 +10919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A350">
         <v>16.600000000000001</v>
       </c>
@@ -10887,7 +10929,7 @@
       <c r="C350">
         <v>50</v>
       </c>
-      <c r="D350">
+      <c r="D350" s="3">
         <v>22</v>
       </c>
       <c r="E350">
@@ -10906,7 +10948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A351">
         <v>18.3</v>
       </c>
@@ -10916,7 +10958,7 @@
       <c r="C351">
         <v>46</v>
       </c>
-      <c r="D351">
+      <c r="D351" s="3">
         <v>22</v>
       </c>
       <c r="E351">
@@ -10941,7 +10983,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A352">
         <v>16.100000000000001</v>
       </c>
@@ -10951,7 +10993,7 @@
       <c r="C352">
         <v>36</v>
       </c>
-      <c r="D352">
+      <c r="D352" s="3">
         <v>22</v>
       </c>
       <c r="E352">
@@ -10973,7 +11015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A353">
         <v>16</v>
       </c>
@@ -10983,7 +11025,7 @@
       <c r="C353">
         <v>46</v>
       </c>
-      <c r="D353">
+      <c r="D353" s="3">
         <v>22</v>
       </c>
       <c r="E353">
@@ -11002,7 +11044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A354">
         <v>16.3</v>
       </c>
@@ -11012,7 +11054,7 @@
       <c r="C354">
         <v>35</v>
       </c>
-      <c r="D354">
+      <c r="D354" s="3">
         <v>22</v>
       </c>
       <c r="E354">
@@ -11031,7 +11073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A355">
         <v>16</v>
       </c>
@@ -11041,7 +11083,7 @@
       <c r="C355">
         <v>44</v>
       </c>
-      <c r="D355">
+      <c r="D355" s="3">
         <v>22</v>
       </c>
       <c r="E355">
@@ -11060,7 +11102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A356">
         <v>18.3</v>
       </c>
@@ -11070,7 +11112,7 @@
       <c r="C356">
         <v>46</v>
       </c>
-      <c r="D356">
+      <c r="D356" s="3">
         <v>22</v>
       </c>
       <c r="E356">
@@ -11089,7 +11131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A357">
         <v>4.5</v>
       </c>
@@ -11099,7 +11141,7 @@
       <c r="C357">
         <v>23</v>
       </c>
-      <c r="D357">
+      <c r="D357" s="3">
         <v>22</v>
       </c>
       <c r="E357">
@@ -11121,7 +11163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A358">
         <v>17</v>
       </c>
@@ -11131,7 +11173,7 @@
       <c r="C358">
         <v>48</v>
       </c>
-      <c r="D358">
+      <c r="D358" s="3">
         <v>22</v>
       </c>
       <c r="E358">
@@ -11150,7 +11192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A359">
         <v>6.1</v>
       </c>
@@ -11160,7 +11202,7 @@
       <c r="C359">
         <v>35</v>
       </c>
-      <c r="D359">
+      <c r="D359" s="3">
         <v>24.5</v>
       </c>
       <c r="E359">
@@ -11179,7 +11221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A360">
         <v>6.1</v>
       </c>
@@ -11189,7 +11231,7 @@
       <c r="C360">
         <v>33</v>
       </c>
-      <c r="D360">
+      <c r="D360" s="3">
         <v>22</v>
       </c>
       <c r="E360">
@@ -11211,7 +11253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A361">
         <v>17.3</v>
       </c>
@@ -11221,7 +11263,7 @@
       <c r="C361">
         <v>36</v>
       </c>
-      <c r="D361">
+      <c r="D361" s="3">
         <v>22</v>
       </c>
       <c r="E361">
@@ -11240,7 +11282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A362">
         <v>6</v>
       </c>
@@ -11250,7 +11292,7 @@
       <c r="C362">
         <v>27</v>
       </c>
-      <c r="D362">
+      <c r="D362" s="3">
         <v>22</v>
       </c>
       <c r="E362">
@@ -11269,7 +11311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A363">
         <v>16</v>
       </c>
@@ -11279,7 +11321,7 @@
       <c r="C363">
         <v>45</v>
       </c>
-      <c r="D363">
+      <c r="D363" s="3">
         <v>22</v>
       </c>
       <c r="E363">
@@ -11298,7 +11340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A364">
         <v>15.4</v>
       </c>
@@ -11308,7 +11350,7 @@
       <c r="C364">
         <v>55</v>
       </c>
-      <c r="D364">
+      <c r="D364" s="3">
         <v>22</v>
       </c>
       <c r="E364">
@@ -11327,7 +11369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A365">
         <v>15.4</v>
       </c>
@@ -11337,7 +11379,7 @@
       <c r="C365">
         <v>39</v>
       </c>
-      <c r="D365">
+      <c r="D365" s="3">
         <v>22</v>
       </c>
       <c r="E365">
@@ -11356,7 +11398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A366">
         <v>16</v>
       </c>
@@ -11366,7 +11408,7 @@
       <c r="C366">
         <v>35</v>
       </c>
-      <c r="D366">
+      <c r="D366" s="3">
         <v>22</v>
       </c>
       <c r="E366">
@@ -11385,7 +11427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A367">
         <v>15.4</v>
       </c>
@@ -11395,7 +11437,7 @@
       <c r="C367">
         <v>52</v>
       </c>
-      <c r="D367">
+      <c r="D367" s="3">
         <v>22</v>
       </c>
       <c r="E367">
@@ -11414,7 +11456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A368">
         <v>16.600000000000001</v>
       </c>
@@ -11424,7 +11466,7 @@
       <c r="C368">
         <v>48</v>
       </c>
-      <c r="D368">
+      <c r="D368" s="3">
         <v>25.5</v>
       </c>
       <c r="E368">
@@ -11446,7 +11488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A369">
         <v>15.4</v>
       </c>
@@ -11456,7 +11498,7 @@
       <c r="C369">
         <v>48</v>
       </c>
-      <c r="D369">
+      <c r="D369" s="3">
         <v>25.5</v>
       </c>
       <c r="E369">
@@ -11478,7 +11520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A370">
         <v>16</v>
       </c>
@@ -11488,7 +11530,7 @@
       <c r="C370">
         <v>43</v>
       </c>
-      <c r="D370">
+      <c r="D370" s="3">
         <v>22</v>
       </c>
       <c r="E370">
@@ -11510,7 +11552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A371">
         <v>15.4</v>
       </c>
@@ -11520,7 +11562,7 @@
       <c r="C371">
         <v>42</v>
       </c>
-      <c r="D371">
+      <c r="D371" s="3">
         <v>22</v>
       </c>
       <c r="E371">
@@ -11539,7 +11581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A372">
         <v>16</v>
       </c>
@@ -11549,7 +11591,7 @@
       <c r="C372">
         <v>43</v>
       </c>
-      <c r="D372">
+      <c r="D372" s="3">
         <v>22</v>
       </c>
       <c r="E372">
@@ -11568,7 +11610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A373">
         <v>20.9</v>
       </c>
@@ -11578,7 +11620,7 @@
       <c r="C373">
         <v>33</v>
       </c>
-      <c r="D373">
+      <c r="D373" s="3">
         <v>22</v>
       </c>
       <c r="E373">
@@ -11597,7 +11639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A374">
         <v>32.1</v>
       </c>
@@ -11607,7 +11649,7 @@
       <c r="C374">
         <v>47</v>
       </c>
-      <c r="D374">
+      <c r="D374" s="3">
         <v>22</v>
       </c>
       <c r="E374">
@@ -11626,7 +11668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A375">
         <v>15.3</v>
       </c>
@@ -11636,7 +11678,7 @@
       <c r="C375">
         <v>16</v>
       </c>
-      <c r="D375">
+      <c r="D375" s="3">
         <v>24</v>
       </c>
       <c r="E375">
@@ -11658,7 +11700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A376">
         <v>28.5</v>
       </c>
@@ -11668,7 +11710,7 @@
       <c r="C376">
         <v>44</v>
       </c>
-      <c r="D376">
+      <c r="D376" s="3">
         <v>25</v>
       </c>
       <c r="E376">
@@ -11690,7 +11732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A377">
         <v>11.9</v>
       </c>
@@ -11700,7 +11742,7 @@
       <c r="C377">
         <v>33</v>
       </c>
-      <c r="D377">
+      <c r="D377" s="3">
         <v>25</v>
       </c>
       <c r="E377">
@@ -11719,7 +11761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A378">
         <v>14.5</v>
       </c>
@@ -11729,7 +11771,7 @@
       <c r="C378">
         <v>36</v>
       </c>
-      <c r="D378">
+      <c r="D378" s="3">
         <v>25</v>
       </c>
       <c r="E378">
@@ -11748,7 +11790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A379">
         <v>16.600000000000001</v>
       </c>
@@ -11758,7 +11800,7 @@
       <c r="C379">
         <v>49</v>
       </c>
-      <c r="D379">
+      <c r="D379" s="3">
         <v>22</v>
       </c>
       <c r="E379">
@@ -11780,7 +11822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A380">
         <v>16.2</v>
       </c>
@@ -11790,7 +11832,7 @@
       <c r="C380">
         <v>39</v>
       </c>
-      <c r="D380">
+      <c r="D380" s="3">
         <v>24.5</v>
       </c>
       <c r="E380">
@@ -11812,7 +11854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A381">
         <v>16.7</v>
       </c>
@@ -11822,7 +11864,7 @@
       <c r="C381">
         <v>44</v>
       </c>
-      <c r="D381">
+      <c r="D381" s="3">
         <v>24.5</v>
       </c>
       <c r="E381">
@@ -11844,7 +11886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A382">
         <v>8.3000000000000007</v>
       </c>
@@ -11854,7 +11896,7 @@
       <c r="C382">
         <v>52</v>
       </c>
-      <c r="D382">
+      <c r="D382" s="3">
         <v>24.5</v>
       </c>
       <c r="E382">
@@ -11873,7 +11915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A383">
         <v>5.5</v>
       </c>
@@ -11883,7 +11925,7 @@
       <c r="C383">
         <v>33</v>
       </c>
-      <c r="D383">
+      <c r="D383" s="3">
         <v>24.5</v>
       </c>
       <c r="E383">
@@ -11905,7 +11947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A384">
         <v>13.6</v>
       </c>
@@ -11915,7 +11957,7 @@
       <c r="C384">
         <v>33</v>
       </c>
-      <c r="D384">
+      <c r="D384" s="3">
         <v>24.5</v>
       </c>
       <c r="E384">
@@ -11937,7 +11979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A385">
         <v>16</v>
       </c>
@@ -11947,7 +11989,7 @@
       <c r="C385">
         <v>39</v>
       </c>
-      <c r="D385">
+      <c r="D385" s="3">
         <v>24.5</v>
       </c>
       <c r="E385">
@@ -11966,7 +12008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A386">
         <v>16.100000000000001</v>
       </c>
@@ -11976,7 +12018,7 @@
       <c r="C386">
         <v>38</v>
       </c>
-      <c r="D386">
+      <c r="D386" s="3">
         <v>25</v>
       </c>
       <c r="E386">
@@ -11998,7 +12040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A387">
         <v>16</v>
       </c>
@@ -12008,7 +12050,7 @@
       <c r="C387">
         <v>45</v>
       </c>
-      <c r="D387">
+      <c r="D387" s="3">
         <v>25</v>
       </c>
       <c r="E387">
@@ -12027,7 +12069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A388">
         <v>15.4</v>
       </c>
@@ -12037,7 +12079,7 @@
       <c r="C388">
         <v>42</v>
       </c>
-      <c r="D388">
+      <c r="D388" s="3">
         <v>25</v>
       </c>
       <c r="E388">
@@ -12059,7 +12101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A389">
         <v>14.7</v>
       </c>
@@ -12069,7 +12111,7 @@
       <c r="C389">
         <v>25</v>
       </c>
-      <c r="D389">
+      <c r="D389" s="3">
         <v>25</v>
       </c>
       <c r="E389">
@@ -12100,24 +12142,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
